--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10515" tabRatio="858" activeTab="10"/>
+    <workbookView windowWidth="21600" windowHeight="10485" tabRatio="858" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -5003,10 +5003,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5017,8 +5017,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5039,10 +5047,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5062,6 +5079,20 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -5071,14 +5102,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5093,7 +5148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5103,61 +5158,6 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5212,67 +5212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5290,13 +5236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5308,7 +5254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5320,7 +5272,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5332,43 +5362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5384,6 +5378,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -5391,15 +5391,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5423,17 +5414,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5453,6 +5453,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5468,26 +5477,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5497,10 +5497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5509,133 +5509,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14870,8 +14870,8 @@
   <sheetPr/>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -5003,10 +5003,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5017,7 +5017,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -5026,7 +5032,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5047,64 +5098,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5124,16 +5122,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5147,15 +5146,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5212,25 +5212,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5248,36 +5278,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5290,7 +5290,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5302,13 +5320,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5320,67 +5374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5394,13 +5394,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5410,6 +5414,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5438,41 +5457,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5491,16 +5480,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5509,16 +5509,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5527,115 +5527,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14870,8 +14870,8 @@
   <sheetPr/>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -16325,7 +16325,7 @@
       <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="10" t="s">
         <v>1039</v>
       </c>
       <c r="B165" s="3"/>

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10485" tabRatio="858" activeTab="10"/>
+    <workbookView windowWidth="23895" windowHeight="10365" tabRatio="858" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -5003,10 +5003,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5018,61 +5018,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5084,39 +5032,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5138,9 +5062,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5154,10 +5077,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5212,13 +5212,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5230,19 +5254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5254,19 +5266,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5278,7 +5284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5290,13 +5302,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5314,31 +5332,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5350,37 +5368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5394,16 +5394,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5411,24 +5411,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5466,16 +5453,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5483,11 +5485,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5497,10 +5497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5509,133 +5509,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14870,8 +14870,8 @@
   <sheetPr/>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10365" tabRatio="858" activeTab="10"/>
+    <workbookView windowWidth="23895" windowHeight="9945" tabRatio="858" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4606" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4602" uniqueCount="1616">
   <si>
     <t>VK_API_VERSION</t>
   </si>
@@ -4929,16 +4929,10 @@
     <t>Device_memory</t>
   </si>
   <si>
-    <t>还需细分两种类型</t>
-  </si>
-  <si>
-    <t>还有管线方面需要提供创建接口</t>
+    <t>管线方面已提供创建接口</t>
   </si>
   <si>
     <t>还可从VkDescriptorSetLayout创建</t>
-  </si>
-  <si>
-    <t>还需在Descriptor_set_layout添加创建接口</t>
   </si>
   <si>
     <t>略麻烦 不明白正确用法</t>
@@ -5003,10 +4997,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5032,8 +5026,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5041,22 +5042,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5071,7 +5056,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5079,6 +5071,53 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5095,14 +5134,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5112,52 +5152,6 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5212,7 +5206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5224,7 +5218,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5236,13 +5254,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5254,13 +5314,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5272,61 +5350,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5342,48 +5378,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -5394,76 +5388,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5491,16 +5420,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5509,137 +5503,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5656,16 +5650,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6137,7 +6125,7 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -6148,7 +6136,7 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -6159,7 +6147,7 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -6170,7 +6158,7 @@
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -9455,14 +9443,14 @@
         <v>618</v>
       </c>
     </row>
-    <row r="328" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A328" s="15" t="s">
+    <row r="328" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A328" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="B328" s="15" t="s">
+      <c r="B328" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C328" s="15" t="s">
+      <c r="C328" s="13" t="s">
         <v>621</v>
       </c>
     </row>
@@ -9543,14 +9531,14 @@
         <v>636</v>
       </c>
     </row>
-    <row r="337" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A337" s="16" t="s">
+    <row r="337" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A337" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="B337" s="15" t="s">
+      <c r="B337" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C337" s="15" t="s">
+      <c r="C337" s="13" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10093,14 +10081,14 @@
         <v>727</v>
       </c>
     </row>
-    <row r="388" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A388" s="16" t="s">
+    <row r="388" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A388" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="B388" s="15" t="s">
+      <c r="B388" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C388" s="15" t="s">
+      <c r="C388" s="13" t="s">
         <v>729</v>
       </c>
     </row>
@@ -10193,7 +10181,7 @@
       </c>
     </row>
     <row r="397" customHeight="1" spans="1:3">
-      <c r="A397" s="13" t="s">
+      <c r="A397" s="11" t="s">
         <v>744</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -10214,14 +10202,14 @@
         <v>747</v>
       </c>
     </row>
-    <row r="400" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A400" s="16" t="s">
+    <row r="400" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A400" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="B400" s="15" t="s">
+      <c r="B400" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C400" s="15" t="s">
+      <c r="C400" s="13" t="s">
         <v>749</v>
       </c>
     </row>
@@ -10248,18 +10236,18 @@
       </c>
     </row>
     <row r="403" customHeight="1" spans="1:3">
-      <c r="A403" s="13" t="s">
+      <c r="A403" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="B403" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="C403" s="13" t="s">
+      <c r="B403" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C403" s="11" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="404" customHeight="1" spans="1:3">
-      <c r="A404" s="13" t="s">
+      <c r="A404" s="11" t="s">
         <v>756</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -10303,18 +10291,18 @@
       </c>
     </row>
     <row r="408" customHeight="1" spans="1:3">
-      <c r="A408" s="13"/>
-      <c r="B408" s="13"/>
-      <c r="C408" s="13"/>
-    </row>
-    <row r="409" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A409" s="15" t="s">
+      <c r="A408" s="11"/>
+      <c r="B408" s="11"/>
+      <c r="C408" s="11"/>
+    </row>
+    <row r="409" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A409" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="B409" s="15" t="s">
+      <c r="B409" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C409" s="15" t="s">
+      <c r="C409" s="13" t="s">
         <v>764</v>
       </c>
     </row>
@@ -10362,14 +10350,14 @@
         <v>770</v>
       </c>
     </row>
-    <row r="415" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A415" s="15" t="s">
+    <row r="415" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A415" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="B415" s="15" t="s">
+      <c r="B415" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C415" s="15" t="s">
+      <c r="C415" s="13" t="s">
         <v>773</v>
       </c>
     </row>
@@ -10395,14 +10383,14 @@
         <v>777</v>
       </c>
     </row>
-    <row r="419" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A419" s="15" t="s">
+    <row r="419" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A419" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="B419" s="15" t="s">
+      <c r="B419" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C419" s="15" t="s">
+      <c r="C419" s="13" t="s">
         <v>779</v>
       </c>
     </row>
@@ -10505,14 +10493,14 @@
         <v>770</v>
       </c>
     </row>
-    <row r="430" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A430" s="15" t="s">
+    <row r="430" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A430" s="13" t="s">
         <v>794</v>
       </c>
-      <c r="B430" s="15" t="s">
+      <c r="B430" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C430" s="15" t="s">
+      <c r="C430" s="13" t="s">
         <v>795</v>
       </c>
     </row>
@@ -10538,14 +10526,14 @@
         <v>799</v>
       </c>
     </row>
-    <row r="434" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A434" s="15" t="s">
+    <row r="434" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A434" s="13" t="s">
         <v>800</v>
       </c>
-      <c r="B434" s="15" t="s">
+      <c r="B434" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C434" s="15" t="s">
+      <c r="C434" s="13" t="s">
         <v>801</v>
       </c>
     </row>
@@ -10571,14 +10559,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="438" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A438" s="15" t="s">
+    <row r="438" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A438" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="B438" s="15" t="s">
+      <c r="B438" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C438" s="15" t="s">
+      <c r="C438" s="13" t="s">
         <v>807</v>
       </c>
     </row>
@@ -10604,14 +10592,14 @@
         <v>811</v>
       </c>
     </row>
-    <row r="442" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A442" s="15" t="s">
+    <row r="442" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A442" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="B442" s="15" t="s">
+      <c r="B442" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C442" s="15" t="s">
+      <c r="C442" s="13" t="s">
         <v>813</v>
       </c>
     </row>
@@ -10659,19 +10647,19 @@
         <v>821</v>
       </c>
     </row>
-    <row r="448" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A448" s="16" t="s">
+    <row r="448" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A448" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="B448" s="15" t="s">
+      <c r="B448" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C448" s="15" t="s">
+      <c r="C448" s="13" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="449" customHeight="1" spans="1:3">
-      <c r="A449" s="13" t="s">
+      <c r="A449" s="11" t="s">
         <v>824</v>
       </c>
       <c r="B449" s="1" t="s">
@@ -10842,7 +10830,7 @@
       <c r="B468" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C468" s="13" t="s">
+      <c r="C468" s="11" t="s">
         <v>855</v>
       </c>
     </row>
@@ -10935,7 +10923,7 @@
       </c>
     </row>
     <row r="479" customHeight="1" spans="3:3">
-      <c r="C479" s="13"/>
+      <c r="C479" s="11"/>
     </row>
     <row r="480" customHeight="1" spans="1:3">
       <c r="A480" s="1" t="s">
@@ -10988,7 +10976,7 @@
       <c r="B485" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C485" s="13" t="s">
+      <c r="C485" s="11" t="s">
         <v>881</v>
       </c>
     </row>
@@ -11004,7 +10992,7 @@
       </c>
     </row>
     <row r="487" customHeight="1" spans="1:3">
-      <c r="A487" s="13" t="s">
+      <c r="A487" s="11" t="s">
         <v>884</v>
       </c>
       <c r="B487" s="1" t="s">
@@ -11245,14 +11233,14 @@
         <v>926</v>
       </c>
     </row>
-    <row r="515" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A515" s="15" t="s">
+    <row r="515" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A515" s="13" t="s">
         <v>927</v>
       </c>
-      <c r="B515" s="15" t="s">
+      <c r="B515" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C515" s="15" t="s">
+      <c r="C515" s="13" t="s">
         <v>928</v>
       </c>
     </row>
@@ -11289,14 +11277,14 @@
         <v>934</v>
       </c>
     </row>
-    <row r="520" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A520" s="15" t="s">
+    <row r="520" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A520" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="B520" s="15" t="s">
+      <c r="B520" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C520" s="15" t="s">
+      <c r="C520" s="13" t="s">
         <v>936</v>
       </c>
     </row>
@@ -11333,14 +11321,14 @@
         <v>942</v>
       </c>
     </row>
-    <row r="525" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A525" s="15" t="s">
+    <row r="525" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A525" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="B525" s="15" t="s">
+      <c r="B525" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C525" s="15" t="s">
+      <c r="C525" s="13" t="s">
         <v>944</v>
       </c>
     </row>
@@ -11377,14 +11365,14 @@
         <v>950</v>
       </c>
     </row>
-    <row r="530" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A530" s="15" t="s">
+    <row r="530" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A530" s="13" t="s">
         <v>951</v>
       </c>
-      <c r="B530" s="15" t="s">
+      <c r="B530" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C530" s="15" t="s">
+      <c r="C530" s="13" t="s">
         <v>952</v>
       </c>
     </row>
@@ -11421,14 +11409,14 @@
         <v>958</v>
       </c>
     </row>
-    <row r="535" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A535" s="15" t="s">
+    <row r="535" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A535" s="13" t="s">
         <v>959</v>
       </c>
-      <c r="B535" s="15" t="s">
+      <c r="B535" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C535" s="15" t="s">
+      <c r="C535" s="13" t="s">
         <v>960</v>
       </c>
     </row>
@@ -11476,14 +11464,14 @@
         <v>968</v>
       </c>
     </row>
-    <row r="541" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A541" s="15" t="s">
+    <row r="541" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A541" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="B541" s="15" t="s">
+      <c r="B541" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C541" s="15" t="s">
+      <c r="C541" s="13" t="s">
         <v>970</v>
       </c>
     </row>
@@ -11509,14 +11497,14 @@
         <v>974</v>
       </c>
     </row>
-    <row r="545" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A545" s="15" t="s">
+    <row r="545" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A545" s="13" t="s">
         <v>975</v>
       </c>
-      <c r="B545" s="15" t="s">
+      <c r="B545" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C545" s="15" t="s">
+      <c r="C545" s="13" t="s">
         <v>976</v>
       </c>
     </row>
@@ -11542,14 +11530,14 @@
         <v>980</v>
       </c>
     </row>
-    <row r="549" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A549" s="15" t="s">
+    <row r="549" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A549" s="13" t="s">
         <v>981</v>
       </c>
-      <c r="B549" s="15" t="s">
+      <c r="B549" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C549" s="15" t="s">
+      <c r="C549" s="13" t="s">
         <v>982</v>
       </c>
     </row>
@@ -11608,14 +11596,14 @@
         <v>992</v>
       </c>
     </row>
-    <row r="556" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A556" s="15" t="s">
+    <row r="556" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A556" s="13" t="s">
         <v>993</v>
       </c>
-      <c r="B556" s="15" t="s">
+      <c r="B556" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C556" s="15" t="s">
+      <c r="C556" s="13" t="s">
         <v>994</v>
       </c>
     </row>
@@ -11674,14 +11662,14 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="563" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A563" s="15" t="s">
+    <row r="563" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A563" s="13" t="s">
         <v>1005</v>
       </c>
-      <c r="B563" s="15" t="s">
+      <c r="B563" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C563" s="15" t="s">
+      <c r="C563" s="13" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -11718,14 +11706,14 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="568" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A568" s="15" t="s">
+    <row r="568" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A568" s="13" t="s">
         <v>1013</v>
       </c>
-      <c r="B568" s="15" t="s">
+      <c r="B568" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C568" s="15" t="s">
+      <c r="C568" s="13" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -11751,14 +11739,14 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="572" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A572" s="15" t="s">
+    <row r="572" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A572" s="13" t="s">
         <v>1019</v>
       </c>
-      <c r="B572" s="15" t="s">
+      <c r="B572" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C572" s="15" t="s">
+      <c r="C572" s="13" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11806,14 +11794,14 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="578" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A578" s="15" t="s">
+    <row r="578" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A578" s="13" t="s">
         <v>1029</v>
       </c>
-      <c r="B578" s="15" t="s">
+      <c r="B578" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C578" s="15" t="s">
+      <c r="C578" s="13" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -11839,14 +11827,14 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="582" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A582" s="15" t="s">
+    <row r="582" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A582" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="B582" s="15" t="s">
+      <c r="B582" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C582" s="15" t="s">
+      <c r="C582" s="13" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -11894,25 +11882,25 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="588" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A588" s="15" t="s">
+    <row r="588" s="13" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A588" s="13" t="s">
         <v>1045</v>
       </c>
-      <c r="B588" s="16" t="s">
+      <c r="B588" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="C588" s="16" t="s">
+      <c r="C588" s="14" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="589" customHeight="1" spans="1:3">
-      <c r="A589" s="13" t="s">
+      <c r="A589" s="11" t="s">
         <v>1047</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C589" s="13" t="s">
+      <c r="C589" s="11" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -11923,7 +11911,7 @@
       <c r="B590" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C590" s="13" t="s">
+      <c r="C590" s="11" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -11945,2917 +11933,2917 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="58.125" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="58.125" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="10" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="10" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="10" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="10" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="10" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="10" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="10" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="10" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="10" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="10" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="10" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="10" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="10" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="10" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="10" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="10" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="10" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="10" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="10" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="10" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="10" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="10" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="10" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="10" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="10" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="10" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="10" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="10" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="10" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="10" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="10" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="10" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="10" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="10" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="10" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="10" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="10" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="10" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="10" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="10" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="10" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="10" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="10" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="10" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="10" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="10" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="10" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="10" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="10" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="10" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="10" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="10" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="12" t="s">
+      <c r="A145" s="10" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="10" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="10" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="10" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="10" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="10" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="10" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="10" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="10" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="10" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="10" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="12" t="s">
+      <c r="A157" s="10" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="12" t="s">
+      <c r="A158" s="10" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="10" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="12" t="s">
+      <c r="A160" s="10" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="12" t="s">
+      <c r="A161" s="10" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="12" t="s">
+      <c r="A162" s="10" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="12" t="s">
+      <c r="A163" s="10" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="10" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="10" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="12" t="s">
+      <c r="A166" s="10" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="10" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="12" t="s">
+      <c r="A168" s="10" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="10" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="10" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="10" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="10" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="12" t="s">
+      <c r="A173" s="10" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="10" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="12" t="s">
+      <c r="A175" s="10" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="12" t="s">
+      <c r="A176" s="10" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="12" t="s">
+      <c r="A177" s="10" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="10" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="12" t="s">
+      <c r="A179" s="10" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="12" t="s">
+      <c r="A180" s="10" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="10" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="12" t="s">
+      <c r="A182" s="10" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="12" t="s">
+      <c r="A183" s="10" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="12" t="s">
+      <c r="A184" s="10" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="12" t="s">
+      <c r="A185" s="10" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="12" t="s">
+      <c r="A186" s="10" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="12" t="s">
+      <c r="A187" s="10" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="12" t="s">
+      <c r="A188" s="10" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="12" t="s">
+      <c r="A189" s="10" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="12" t="s">
+      <c r="A190" s="10" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="12" t="s">
+      <c r="A191" s="10" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="12" t="s">
+      <c r="A192" s="10" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="12" t="s">
+      <c r="A193" s="10" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="12" t="s">
+      <c r="A194" s="10" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="12" t="s">
+      <c r="A195" s="10" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="12" t="s">
+      <c r="A196" s="10" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="12" t="s">
+      <c r="A197" s="10" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="12" t="s">
+      <c r="A198" s="10" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="12" t="s">
+      <c r="A199" s="10" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="12" t="s">
+      <c r="A200" s="10" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="12" t="s">
+      <c r="A201" s="10" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="12" t="s">
+      <c r="A202" s="10" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="12" t="s">
+      <c r="A203" s="10" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="12" t="s">
+      <c r="A204" s="10" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="12" t="s">
+      <c r="A205" s="10" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="12" t="s">
+      <c r="A206" s="10" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="12" t="s">
+      <c r="A207" s="10" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="12" t="s">
+      <c r="A208" s="10" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="10" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="12" t="s">
+      <c r="A210" s="10" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="12" t="s">
+      <c r="A211" s="10" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="12" t="s">
+      <c r="A212" s="10" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="12" t="s">
+      <c r="A213" s="10" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="12" t="s">
+      <c r="A214" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="12" t="s">
+      <c r="A215" s="10" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="12" t="s">
+      <c r="A216" s="10" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="12" t="s">
+      <c r="A217" s="10" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="12" t="s">
+      <c r="A218" s="10" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="12" t="s">
+      <c r="A219" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="12" t="s">
+      <c r="A220" s="10" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="12" t="s">
+      <c r="A221" s="10" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="12" t="s">
+      <c r="A222" s="10" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="12" t="s">
+      <c r="A223" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="12" t="s">
+      <c r="A224" s="10" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="12" t="s">
+      <c r="A225" s="10" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="12" t="s">
+      <c r="A226" s="10" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="12" t="s">
+      <c r="A227" s="10" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="12" t="s">
+      <c r="A228" s="10" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="12" t="s">
+      <c r="A229" s="10" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="12" t="s">
+      <c r="A230" s="10" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="12" t="s">
+      <c r="A231" s="10" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="12" t="s">
+      <c r="A232" s="10" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="12" t="s">
+      <c r="A233" s="10" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="12" t="s">
+      <c r="A234" s="10" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="12" t="s">
+      <c r="A235" s="10" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="12" t="s">
+      <c r="A236" s="10" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="12" t="s">
+      <c r="A237" s="10" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="12" t="s">
+      <c r="A238" s="10" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="12" t="s">
+      <c r="A239" s="10" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="12" t="s">
+      <c r="A240" s="10" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="12" t="s">
+      <c r="A241" s="10" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="12" t="s">
+      <c r="A242" s="10" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="12" t="s">
+      <c r="A243" s="10" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="12" t="s">
+      <c r="A244" s="10" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="12" t="s">
+      <c r="A245" s="10" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="12" t="s">
+      <c r="A246" s="10" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="12" t="s">
+      <c r="A247" s="10" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="12" t="s">
+      <c r="A248" s="10" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="12" t="s">
+      <c r="A249" s="10" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="12" t="s">
+      <c r="A250" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="12" t="s">
+      <c r="A251" s="10" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="12" t="s">
+      <c r="A252" s="10" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="12" t="s">
+      <c r="A253" s="10" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="12" t="s">
+      <c r="A254" s="10" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="12" t="s">
+      <c r="A255" s="10" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="12" t="s">
+      <c r="A256" s="10" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="12" t="s">
+      <c r="A257" s="10" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="12" t="s">
+      <c r="A258" s="10" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="12" t="s">
+      <c r="A259" s="10" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="12" t="s">
+      <c r="A260" s="10" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="12" t="s">
+      <c r="A261" s="10" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="12" t="s">
+      <c r="A262" s="10" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="12" t="s">
+      <c r="A263" s="10" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="12" t="s">
+      <c r="A264" s="10" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="12" t="s">
+      <c r="A265" s="10" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="12" t="s">
+      <c r="A266" s="10" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="12" t="s">
+      <c r="A267" s="10" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="12" t="s">
+      <c r="A268" s="10" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="12" t="s">
+      <c r="A269" s="10" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="12" t="s">
+      <c r="A270" s="10" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="12" t="s">
+      <c r="A271" s="10" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="12" t="s">
+      <c r="A272" s="10" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="12" t="s">
+      <c r="A273" s="10" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="12" t="s">
+      <c r="A274" s="10" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="12" t="s">
+      <c r="A275" s="10" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="12" t="s">
+      <c r="A276" s="10" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="12" t="s">
+      <c r="A277" s="10" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="12" t="s">
+      <c r="A278" s="10" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="12" t="s">
+      <c r="A279" s="10" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="12" t="s">
+      <c r="A280" s="10" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="12" t="s">
+      <c r="A281" s="10" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="12" t="s">
+      <c r="A282" s="10" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="12" t="s">
+      <c r="A283" s="10" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="12" t="s">
+      <c r="A284" s="10" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="12" t="s">
+      <c r="A285" s="10" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="12" t="s">
+      <c r="A286" s="10" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="12" t="s">
+      <c r="A287" s="10" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="12" t="s">
+      <c r="A288" s="10" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="12" t="s">
+      <c r="A289" s="10" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="12" t="s">
+      <c r="A290" s="10" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="12" t="s">
+      <c r="A291" s="10" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="12" t="s">
+      <c r="A292" s="10" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="12" t="s">
+      <c r="A293" s="10" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="12" t="s">
+      <c r="A294" s="10" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="12" t="s">
+      <c r="A295" s="10" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="12" t="s">
+      <c r="A296" s="10" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="12" t="s">
+      <c r="A297" s="10" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="12" t="s">
+      <c r="A298" s="10" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="12" t="s">
+      <c r="A299" s="10" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="12" t="s">
+      <c r="A300" s="10" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="12" t="s">
+      <c r="A301" s="10" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="12" t="s">
+      <c r="A302" s="10" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="12" t="s">
+      <c r="A303" s="10" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="12" t="s">
+      <c r="A304" s="10" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="12" t="s">
+      <c r="A305" s="10" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="12" t="s">
+      <c r="A306" s="10" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="12" t="s">
+      <c r="A307" s="10" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="12" t="s">
+      <c r="A308" s="10" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="12" t="s">
+      <c r="A309" s="10" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="12" t="s">
+      <c r="A310" s="10" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="12" t="s">
+      <c r="A311" s="10" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="12" t="s">
+      <c r="A312" s="10" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="12" t="s">
+      <c r="A313" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="12" t="s">
+      <c r="A314" s="10" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="12" t="s">
+      <c r="A315" s="10" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="12" t="s">
+      <c r="A316" s="10" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="12" t="s">
+      <c r="A317" s="10" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="12" t="s">
+      <c r="A318" s="10" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="12" t="s">
+      <c r="A319" s="10" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="12" t="s">
+      <c r="A320" s="10" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="12" t="s">
+      <c r="A321" s="10" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="12" t="s">
+      <c r="A322" s="10" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="12" t="s">
+      <c r="A323" s="10" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="12" t="s">
+      <c r="A324" s="10" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="12" t="s">
+      <c r="A325" s="10" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="12" t="s">
+      <c r="A326" s="10" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="12" t="s">
+      <c r="A327" s="10" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="12" t="s">
+      <c r="A328" s="10" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="12" t="s">
+      <c r="A329" s="10" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="12" t="s">
+      <c r="A330" s="10" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="12" t="s">
+      <c r="A331" s="10" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="12" t="s">
+      <c r="A332" s="10" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="12" t="s">
+      <c r="A333" s="10" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="12" t="s">
+      <c r="A334" s="10" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="12" t="s">
+      <c r="A335" s="10" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="12" t="s">
+      <c r="A336" s="10" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="12" t="s">
+      <c r="A337" s="10" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="12" t="s">
+      <c r="A338" s="10" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="12" t="s">
+      <c r="A339" s="10" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="12" t="s">
+      <c r="A340" s="10" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="12" t="s">
+      <c r="A341" s="10" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="12" t="s">
+      <c r="A342" s="10" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="12" t="s">
+      <c r="A343" s="10" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="12" t="s">
+      <c r="A344" s="10" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="12" t="s">
+      <c r="A345" s="10" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="12" t="s">
+      <c r="A346" s="10" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="12" t="s">
+      <c r="A347" s="10" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="12" t="s">
+      <c r="A348" s="10" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="12" t="s">
+      <c r="A349" s="10" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="12" t="s">
+      <c r="A350" s="10" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="12" t="s">
+      <c r="A351" s="10" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="12" t="s">
+      <c r="A352" s="10" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="12" t="s">
+      <c r="A353" s="10" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="12" t="s">
+      <c r="A354" s="10" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="12" t="s">
+      <c r="A355" s="10" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="12" t="s">
+      <c r="A356" s="10" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="12" t="s">
+      <c r="A357" s="10" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="12" t="s">
+      <c r="A358" s="10" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="12" t="s">
+      <c r="A359" s="10" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="12" t="s">
+      <c r="A360" s="10" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="12" t="s">
+      <c r="A361" s="10" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="12" t="s">
+      <c r="A362" s="10" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="12" t="s">
+      <c r="A363" s="10" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="12" t="s">
+      <c r="A364" s="10" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="12" t="s">
+      <c r="A365" s="10" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="12" t="s">
+      <c r="A366" s="10" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="12" t="s">
+      <c r="A367" s="10" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="12" t="s">
+      <c r="A368" s="10" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="12" t="s">
+      <c r="A369" s="10" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="12" t="s">
+      <c r="A370" s="10" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="12" t="s">
+      <c r="A371" s="10" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="12" t="s">
+      <c r="A372" s="10" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="12" t="s">
+      <c r="A373" s="10" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="12" t="s">
+      <c r="A374" s="10" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="12" t="s">
+      <c r="A375" s="10" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="12" t="s">
+      <c r="A376" s="10" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="12" t="s">
+      <c r="A377" s="10" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="12" t="s">
+      <c r="A378" s="10" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="12" t="s">
+      <c r="A379" s="10" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="12" t="s">
+      <c r="A380" s="10" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="12" t="s">
+      <c r="A381" s="10" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="12" t="s">
+      <c r="A382" s="10" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="12" t="s">
+      <c r="A383" s="10" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="12" t="s">
+      <c r="A384" s="10" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="12" t="s">
+      <c r="A385" s="10" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="12" t="s">
+      <c r="A386" s="10" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="12" t="s">
+      <c r="A387" s="10" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="12" t="s">
+      <c r="A388" s="10" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="12" t="s">
+      <c r="A389" s="10" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="12" t="s">
+      <c r="A390" s="10" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="12" t="s">
+      <c r="A391" s="10" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="12" t="s">
+      <c r="A392" s="10" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="12" t="s">
+      <c r="A393" s="10" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="12" t="s">
+      <c r="A394" s="10" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="12" t="s">
+      <c r="A395" s="10" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="12" t="s">
+      <c r="A396" s="10" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="12" t="s">
+      <c r="A397" s="10" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="12" t="s">
+      <c r="A398" s="10" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="12" t="s">
+      <c r="A399" s="10" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="12" t="s">
+      <c r="A400" s="10" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="12" t="s">
+      <c r="A401" s="10" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="12" t="s">
+      <c r="A402" s="10" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="12" t="s">
+      <c r="A403" s="10" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="12" t="s">
+      <c r="A404" s="10" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="12" t="s">
+      <c r="A405" s="10" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="12" t="s">
+      <c r="A406" s="10" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="12" t="s">
+      <c r="A407" s="10" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="12" t="s">
+      <c r="A408" s="10" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="12" t="s">
+      <c r="A409" s="10" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="12" t="s">
+      <c r="A410" s="10" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="12" t="s">
+      <c r="A411" s="10" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="12" t="s">
+      <c r="A412" s="10" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="12" t="s">
+      <c r="A413" s="10" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="12" t="s">
+      <c r="A414" s="10" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="12" t="s">
+      <c r="A415" s="10" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="12" t="s">
+      <c r="A416" s="10" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="12" t="s">
+      <c r="A417" s="10" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="12" t="s">
+      <c r="A418" s="10" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="12" t="s">
+      <c r="A419" s="10" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="12" t="s">
+      <c r="A420" s="10" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="12" t="s">
+      <c r="A421" s="10" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="12" t="s">
+      <c r="A422" s="10" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="12" t="s">
+      <c r="A423" s="10" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="12" t="s">
+      <c r="A424" s="10" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="12" t="s">
+      <c r="A425" s="10" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="12" t="s">
+      <c r="A426" s="10" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="12" t="s">
+      <c r="A427" s="10" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="12" t="s">
+      <c r="A428" s="10" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="12" t="s">
+      <c r="A429" s="10" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="12" t="s">
+      <c r="A430" s="10" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="12" t="s">
+      <c r="A431" s="10" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="12" t="s">
+      <c r="A432" s="10" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="12" t="s">
+      <c r="A433" s="10" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="12" t="s">
+      <c r="A434" s="10" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="12" t="s">
+      <c r="A435" s="10" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="12" t="s">
+      <c r="A436" s="10" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="12" t="s">
+      <c r="A437" s="10" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="12" t="s">
+      <c r="A438" s="10" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="12" t="s">
+      <c r="A439" s="10" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="12" t="s">
+      <c r="A440" s="10" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="12" t="s">
+      <c r="A441" s="10" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="12" t="s">
+      <c r="A442" s="10" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="12" t="s">
+      <c r="A443" s="10" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="12" t="s">
+      <c r="A444" s="10" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="12" t="s">
+      <c r="A445" s="10" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="12" t="s">
+      <c r="A446" s="10" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="12" t="s">
+      <c r="A447" s="10" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="12" t="s">
+      <c r="A448" s="10" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="12" t="s">
+      <c r="A449" s="10" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="12" t="s">
+      <c r="A450" s="10" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="12" t="s">
+      <c r="A451" s="10" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="12" t="s">
+      <c r="A452" s="10" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="12" t="s">
+      <c r="A453" s="10" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="12" t="s">
+      <c r="A454" s="10" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="12" t="s">
+      <c r="A455" s="10" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="12" t="s">
+      <c r="A456" s="10" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="12" t="s">
+      <c r="A457" s="10" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="12" t="s">
+      <c r="A458" s="10" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="12" t="s">
+      <c r="A459" s="10" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="12" t="s">
+      <c r="A460" s="10" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="12" t="s">
+      <c r="A461" s="10" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="12" t="s">
+      <c r="A462" s="10" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="12" t="s">
+      <c r="A463" s="10" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="12" t="s">
+      <c r="A464" s="10" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="12" t="s">
+      <c r="A465" s="10" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="12" t="s">
+      <c r="A466" s="10" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="12" t="s">
+      <c r="A467" s="10" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="12" t="s">
+      <c r="A468" s="10" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="12" t="s">
+      <c r="A469" s="10" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="12" t="s">
+      <c r="A470" s="10" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="12" t="s">
+      <c r="A471" s="10" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="12" t="s">
+      <c r="A472" s="10" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="12" t="s">
+      <c r="A473" s="10" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="12" t="s">
+      <c r="A474" s="10" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="12" t="s">
+      <c r="A475" s="10" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="12" t="s">
+      <c r="A476" s="10" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="12" t="s">
+      <c r="A477" s="10" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="12" t="s">
+      <c r="A478" s="10" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="12" t="s">
+      <c r="A479" s="10" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="12" t="s">
+      <c r="A480" s="10" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="12" t="s">
+      <c r="A481" s="10" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="12" t="s">
+      <c r="A482" s="10" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="12" t="s">
+      <c r="A483" s="10" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="12" t="s">
+      <c r="A484" s="10" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="12" t="s">
+      <c r="A485" s="10" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="12" t="s">
+      <c r="A486" s="10" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="12" t="s">
+      <c r="A487" s="10" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="12" t="s">
+      <c r="A488" s="10" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="12" t="s">
+      <c r="A489" s="10" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="12" t="s">
+      <c r="A490" s="10" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="12" t="s">
+      <c r="A491" s="10" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="12" t="s">
+      <c r="A492" s="10" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="12" t="s">
+      <c r="A493" s="10" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="12" t="s">
+      <c r="A494" s="10" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="12" t="s">
+      <c r="A495" s="10" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="12" t="s">
+      <c r="A496" s="10" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="12" t="s">
+      <c r="A497" s="10" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="12" t="s">
+      <c r="A498" s="10" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="12" t="s">
+      <c r="A499" s="10" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="12" t="s">
+      <c r="A500" s="10" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="12" t="s">
+      <c r="A501" s="10" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="12" t="s">
+      <c r="A502" s="10" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="12" t="s">
+      <c r="A503" s="10" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="12" t="s">
+      <c r="A504" s="10" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="12" t="s">
+      <c r="A505" s="10" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="12" t="s">
+      <c r="A506" s="10" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="12" t="s">
+      <c r="A507" s="10" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="12" t="s">
+      <c r="A508" s="10" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="12" t="s">
+      <c r="A509" s="10" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="12" t="s">
+      <c r="A510" s="10" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="12" t="s">
+      <c r="A511" s="10" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="12" t="s">
+      <c r="A512" s="10" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="12" t="s">
+      <c r="A513" s="10" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="12" t="s">
+      <c r="A514" s="10" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="12" t="s">
+      <c r="A515" s="10" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="12" t="s">
+      <c r="A516" s="10" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="12" t="s">
+      <c r="A517" s="10" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="12" t="s">
+      <c r="A518" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="12" t="s">
+      <c r="A519" s="10" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="12" t="s">
+      <c r="A520" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="12" t="s">
+      <c r="A521" s="10" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="12" t="s">
+      <c r="A522" s="10" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="12" t="s">
+      <c r="A523" s="10" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="12" t="s">
+      <c r="A524" s="10" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="12" t="s">
+      <c r="A525" s="10" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="12" t="s">
+      <c r="A526" s="10" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="12" t="s">
+      <c r="A527" s="10" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="12" t="s">
+      <c r="A528" s="10" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="12" t="s">
+      <c r="A529" s="10" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="12" t="s">
+      <c r="A530" s="10" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="12" t="s">
+      <c r="A531" s="10" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="12" t="s">
+      <c r="A532" s="10" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="12" t="s">
+      <c r="A533" s="10" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="12" t="s">
+      <c r="A534" s="10" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="12" t="s">
+      <c r="A535" s="10" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="12" t="s">
+      <c r="A536" s="10" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="12" t="s">
+      <c r="A537" s="10" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="12" t="s">
+      <c r="A538" s="10" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="12" t="s">
+      <c r="A539" s="10" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="12" t="s">
+      <c r="A540" s="10" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="12" t="s">
+      <c r="A541" s="10" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="12" t="s">
+      <c r="A542" s="10" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="12" t="s">
+      <c r="A543" s="10" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="12" t="s">
+      <c r="A544" s="10" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="12" t="s">
+      <c r="A545" s="10" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="12" t="s">
+      <c r="A546" s="10" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="12" t="s">
+      <c r="A547" s="10" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="12" t="s">
+      <c r="A548" s="10" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="12" t="s">
+      <c r="A549" s="10" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="12" t="s">
+      <c r="A550" s="10" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="12" t="s">
+      <c r="A551" s="10" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="12" t="s">
+      <c r="A552" s="10" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="12" t="s">
+      <c r="A553" s="10" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="12" t="s">
+      <c r="A554" s="10" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="12" t="s">
+      <c r="A555" s="10" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="12" t="s">
+      <c r="A556" s="10" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="12" t="s">
+      <c r="A557" s="10" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="12" t="s">
+      <c r="A558" s="10" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="12" t="s">
+      <c r="A559" s="10" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="12" t="s">
+      <c r="A560" s="10" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="12" t="s">
+      <c r="A561" s="10" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="12" t="s">
+      <c r="A562" s="10" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="12" t="s">
+      <c r="A563" s="10" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="12" t="s">
+      <c r="A564" s="10" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="12" t="s">
+      <c r="A565" s="10" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="12" t="s">
+      <c r="A566" s="10" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="12" t="s">
+      <c r="A567" s="10" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="12" t="s">
+      <c r="A568" s="10" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="12" t="s">
+      <c r="A569" s="10" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="12" t="s">
+      <c r="A570" s="10" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="12" t="s">
+      <c r="A571" s="10" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="12" t="s">
+      <c r="A572" s="10" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="12" t="s">
+      <c r="A573" s="10" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="12" t="s">
+      <c r="A574" s="10" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="12" t="s">
+      <c r="A575" s="10" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="12" t="s">
+      <c r="A576" s="10" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="12" t="s">
+      <c r="A577" s="10" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="12" t="s">
+      <c r="A578" s="10" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="12" t="s">
+      <c r="A579" s="10" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="12" t="s">
+      <c r="A580" s="10" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="12" t="s">
+      <c r="A581" s="10" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="12" t="s">
+      <c r="A582" s="10" t="s">
         <v>991</v>
       </c>
     </row>
@@ -14870,8 +14858,8 @@
   <sheetPr/>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -15240,7 +15228,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3"/>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>822</v>
       </c>
       <c r="D35" s="3"/>
@@ -15301,7 +15289,7 @@
       <c r="B41" s="3" t="s">
         <v>1594</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>959</v>
       </c>
       <c r="D41" s="3"/>
@@ -15311,7 +15299,7 @@
         <v>752</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>969</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -15343,12 +15331,10 @@
         <v>758</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>1019</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>1596</v>
-      </c>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
@@ -15365,11 +15351,11 @@
         <v>761</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="7" t="s">
         <v>1035</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -15581,7 +15567,7 @@
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="2" t="s">
         <v>826</v>
       </c>
       <c r="B74" s="3"/>
@@ -15981,7 +15967,7 @@
       <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="2" t="s">
         <v>929</v>
       </c>
       <c r="B124" s="3"/>
@@ -15989,7 +15975,7 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="2" t="s">
         <v>931</v>
       </c>
       <c r="B125" s="3"/>
@@ -16101,21 +16087,21 @@
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="2" t="s">
         <v>971</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="2" t="s">
         <v>973</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -16241,37 +16227,31 @@
       <c r="D155" s="3"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>1598</v>
-      </c>
+      <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>1598</v>
-      </c>
+      <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>1598</v>
-      </c>
+      <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="2" t="s">
         <v>1023</v>
       </c>
       <c r="B159" s="3"/>
@@ -16283,7 +16263,7 @@
         <v>1025</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -16293,7 +16273,7 @@
         <v>1027</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -16315,17 +16295,17 @@
       <c r="D163" s="3"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="9" t="s">
         <v>1039</v>
       </c>
       <c r="B165" s="3"/>
@@ -16333,7 +16313,7 @@
       <c r="D165" s="3"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="9" t="s">
         <v>1041</v>
       </c>
       <c r="B166" s="3"/>
@@ -16341,7 +16321,7 @@
       <c r="D166" s="3"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="8" t="s">
         <v>1047</v>
       </c>
       <c r="B167" s="3"/>
@@ -16379,82 +16359,82 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
   </sheetData>
@@ -16474,10 +16454,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9" style="12"/>
-    <col min="3" max="3" width="46.75" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="31" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="46.75" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -16492,7 +16472,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>637</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -16503,7 +16483,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>728</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -16514,7 +16494,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>748</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -16602,7 +16582,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>822</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -16770,10 +16750,10 @@
       <c r="A27" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -16812,10 +16792,10 @@
       <c r="C1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -16877,7 +16857,7 @@
       <c r="C5" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>647</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -16894,7 +16874,7 @@
       <c r="C6" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>649</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -16911,7 +16891,7 @@
       <c r="C7" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>651</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -16928,7 +16908,7 @@
       <c r="C8" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>655</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -16945,7 +16925,7 @@
       <c r="C9" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>658</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -16962,7 +16942,7 @@
       <c r="C10" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>661</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -16979,7 +16959,7 @@
       <c r="C11" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>664</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -16996,7 +16976,7 @@
       <c r="C12" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>667</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -17013,7 +16993,7 @@
       <c r="C13" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>670</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -17030,7 +17010,7 @@
       <c r="C14" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>673</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -17061,7 +17041,7 @@
       <c r="C16" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>744</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -17078,7 +17058,7 @@
       <c r="C17" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>739</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -17095,7 +17075,7 @@
       <c r="C18" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="1" t="s">
         <v>1069</v>
       </c>
@@ -17110,7 +17090,7 @@
       <c r="C19" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>971</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -17127,7 +17107,7 @@
       <c r="C20" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>967</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -17144,7 +17124,7 @@
       <c r="C21" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>973</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -17161,7 +17141,7 @@
       <c r="C22" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>1047</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -17178,7 +17158,7 @@
       <c r="C23" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>1049</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -17195,7 +17175,7 @@
       <c r="C24" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="1" t="s">
         <v>1075</v>
       </c>
@@ -17210,7 +17190,7 @@
       <c r="C25" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>758</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -17227,7 +17207,7 @@
       <c r="C26" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>786</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -17244,7 +17224,7 @@
       <c r="C27" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>910</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -17261,7 +17241,7 @@
       <c r="C28" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>850</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -17278,7 +17258,7 @@
       <c r="C29" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>771</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -17295,7 +17275,7 @@
       <c r="C30" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>949</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -17312,7 +17292,7 @@
       <c r="C31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>793</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -17329,7 +17309,7 @@
       <c r="C32" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>789</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -17346,7 +17326,7 @@
       <c r="C33" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>820</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -17368,7 +17348,7 @@
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:5">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>744</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -17424,13 +17404,13 @@
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:5">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>755</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -17438,7 +17418,7 @@
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:5">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="11" t="s">
         <v>756</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -17844,7 +17824,7 @@
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:5">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="11" t="s">
         <v>824</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -18046,7 +18026,7 @@
       <c r="B83" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="11" t="s">
         <v>855</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -18228,7 +18208,7 @@
       <c r="B96" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="11" t="s">
         <v>881</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -18250,7 +18230,7 @@
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:5">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="11" t="s">
         <v>884</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -19099,13 +19079,13 @@
       </c>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:3">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="11" t="s">
         <v>1047</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="11" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -19116,7 +19096,7 @@
       <c r="B165" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="11" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -19141,622 +19121,622 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="58.75" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="58.75" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="10" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="10" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="10" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="10" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="10" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="10" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="10" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="10" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="10" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="10" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="10" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="10" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="10" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="10" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="10" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="10" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="10" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="10" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="10" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="10" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="10" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="10" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="10" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="10" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="10" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="10" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="10" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="10" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="10" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="10" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="10" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="10" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="10" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="10" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="10" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="10" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="10" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="10" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="10" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="10" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="10" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="10" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="10" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="10" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="10" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="10" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="10" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="10" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="10" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="10" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="10" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="10" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="10" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="10" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="10" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="10" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="10" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="10" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="10" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="10" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="10" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="10" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="10" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -19780,10 +19760,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="44.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9" style="12"/>
-    <col min="3" max="3" width="45.125" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="44.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="45.125" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -19990,10 +19970,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="57" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9" style="12"/>
-    <col min="3" max="3" width="70.5" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="57" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="70.5" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -21934,1120 +21914,1120 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="80.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="75.875" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="80.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="75.875" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>1313</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>1315</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>1317</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>1319</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>1321</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>1323</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>1325</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>1327</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>1329</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>1331</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>1335</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>1337</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>1339</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>1341</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>1343</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>1349</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>1351</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="21" ht="12.95" customHeight="1" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>1353</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>1355</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>1357</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>1359</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>1361</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>1363</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>1365</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>1367</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>1369</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>1371</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>1373</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>1375</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>1377</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>1379</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>1381</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>1383</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>1389</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>1391</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>1393</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>1395</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>1397</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>1399</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>1401</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>1403</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>1405</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>1407</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>1409</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>1411</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="51" s="14" customFormat="1" spans="1:2">
-      <c r="A51" s="14" t="s">
+    <row r="51" s="12" customFormat="1" spans="1:2">
+      <c r="A51" s="12" t="s">
         <v>1413</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>1415</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>1417</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="10" t="s">
         <v>1419</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>1421</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>1423</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="10" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>1425</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>1427</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="10" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>1429</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="10" t="s">
         <v>1431</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="10" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>1433</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="10" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="10" t="s">
         <v>1435</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="10" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="10" t="s">
         <v>1437</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="10" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="10" t="s">
         <v>1439</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>1441</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="10" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="10" t="s">
         <v>1443</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="10" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="10" t="s">
         <v>1445</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="10" t="s">
         <v>1447</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="10" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="10" t="s">
         <v>1449</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="10" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="10" t="s">
         <v>1451</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="10" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="10" t="s">
         <v>1453</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="10" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>1455</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="10" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="10" t="s">
         <v>1457</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="10" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="10" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="10" t="s">
         <v>1461</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="10" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="10" t="s">
         <v>1463</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="10" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="10" t="s">
         <v>1465</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="10" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="10" t="s">
         <v>1467</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="10" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="10" t="s">
         <v>1469</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="10" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="10" t="s">
         <v>1471</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="10" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="81" s="14" customFormat="1" spans="1:2">
-      <c r="A81" s="14" t="s">
+    <row r="81" s="12" customFormat="1" spans="1:2">
+      <c r="A81" s="12" t="s">
         <v>1473</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="10" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="10" t="s">
         <v>1475</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="10" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="10" t="s">
         <v>1477</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="10" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="10" t="s">
         <v>1479</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="10" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="10" t="s">
         <v>1481</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="10" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="10" t="s">
         <v>1483</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="10" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="10" t="s">
         <v>1485</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="10" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="10" t="s">
         <v>1487</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="10" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="10" t="s">
         <v>1489</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="10" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="10" t="s">
         <v>1491</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="10" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="10" t="s">
         <v>1493</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="10" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="10" t="s">
         <v>1495</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="10" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="10" t="s">
         <v>1497</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="10" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="10" t="s">
         <v>1499</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="10" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="10" t="s">
         <v>1501</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="10" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="10" t="s">
         <v>1503</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="10" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="10" t="s">
         <v>1505</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="10" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="98" s="14" customFormat="1" spans="1:2">
-      <c r="A98" s="14" t="s">
+    <row r="98" s="12" customFormat="1" spans="1:2">
+      <c r="A98" s="12" t="s">
         <v>1507</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="10" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="10" t="s">
         <v>1509</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="10" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="100" s="14" customFormat="1" spans="1:2">
-      <c r="A100" s="14" t="s">
+    <row r="100" s="12" customFormat="1" spans="1:2">
+      <c r="A100" s="12" t="s">
         <v>1511</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="10" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="10" t="s">
         <v>1513</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="10" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="102" s="14" customFormat="1" spans="1:2">
-      <c r="A102" s="14" t="s">
+    <row r="102" s="12" customFormat="1" spans="1:2">
+      <c r="A102" s="12" t="s">
         <v>1515</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="10" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="10" t="s">
         <v>1517</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="10" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="10" t="s">
         <v>1519</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="10" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="105" s="14" customFormat="1" spans="1:2">
-      <c r="A105" s="14" t="s">
+    <row r="105" s="12" customFormat="1" spans="1:2">
+      <c r="A105" s="12" t="s">
         <v>1521</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="10" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="10" t="s">
         <v>1523</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="10" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="10" t="s">
         <v>1525</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="10" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="108" s="14" customFormat="1" spans="1:2">
-      <c r="A108" s="14" t="s">
+    <row r="108" s="12" customFormat="1" spans="1:2">
+      <c r="A108" s="12" t="s">
         <v>1527</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="10" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="10" t="s">
         <v>1529</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="10" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="110" s="14" customFormat="1" spans="1:2">
-      <c r="A110" s="14" t="s">
+    <row r="110" s="12" customFormat="1" spans="1:2">
+      <c r="A110" s="12" t="s">
         <v>1531</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="10" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="10" t="s">
         <v>1533</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="10" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="10" t="s">
         <v>1535</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="10" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="10" t="s">
         <v>1537</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="10" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="10" t="s">
         <v>1539</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="10" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="10" t="s">
         <v>1541</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="10" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="10" t="s">
         <v>1543</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="10" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="10" t="s">
         <v>1545</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="10" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="10" t="s">
         <v>1547</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="10" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="10" t="s">
         <v>1549</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="10" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="10" t="s">
         <v>1551</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="10" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="10" t="s">
         <v>1553</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="10" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="10" t="s">
         <v>1555</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="10" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="10" t="s">
         <v>1557</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="10" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="10" t="s">
         <v>1559</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="10" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="10" t="s">
         <v>1561</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="10" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="10" t="s">
         <v>1563</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="10" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="127" s="14" customFormat="1" spans="1:2">
-      <c r="A127" s="14" t="s">
+    <row r="127" s="12" customFormat="1" spans="1:2">
+      <c r="A127" s="12" t="s">
         <v>1565</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="10" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="10" t="s">
         <v>1567</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="10" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="10" t="s">
         <v>1569</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="10" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="10" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="10" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="10" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="10" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="10" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="10" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="10" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="10" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="10" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="10" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="10" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="10" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="10" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="10" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="10" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="10" t="s">
         <v>1586</v>
       </c>
     </row>
@@ -23068,15 +23048,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="36.25" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -23087,7 +23067,7 @@
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -23098,7 +23078,7 @@
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -23109,7 +23089,7 @@
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -24568,10 +24548,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="12" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="40.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4602" uniqueCount="1616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="1617">
   <si>
     <t>VK_API_VERSION</t>
   </si>
@@ -4941,7 +4941,7 @@
     <t>不明白用法</t>
   </si>
   <si>
-    <t>因为有"basePipelineHandle"还需在Pipeline提供创建自身</t>
+    <t>还需解决shared_module作为参数的问题</t>
   </si>
   <si>
     <t>代码书写规律</t>
@@ -4978,6 +4978,9 @@
   </si>
   <si>
     <t>const变量后边跟随"_c"</t>
+  </si>
+  <si>
+    <t>枚举类型前边加"E_"  目的是方便使用者依靠自动完成进行筛选.</t>
   </si>
   <si>
     <t>使用规律</t>
@@ -5012,6 +5015,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5026,22 +5036,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5049,14 +5061,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5077,30 +5081,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -5117,16 +5097,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5154,8 +5141,24 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5177,6 +5180,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5206,60 +5227,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5272,7 +5239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5284,7 +5251,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5296,55 +5317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5362,19 +5347,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5392,22 +5407,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5417,6 +5417,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5451,11 +5460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5491,10 +5506,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5503,137 +5518,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5642,29 +5657,41 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6125,7 +6152,7 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -6136,7 +6163,7 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -6147,7 +6174,7 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -6158,7 +6185,7 @@
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -9443,14 +9470,14 @@
         <v>618</v>
       </c>
     </row>
-    <row r="328" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A328" s="13" t="s">
+    <row r="328" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A328" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="B328" s="13" t="s">
+      <c r="B328" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C328" s="13" t="s">
+      <c r="C328" s="17" t="s">
         <v>621</v>
       </c>
     </row>
@@ -9531,14 +9558,14 @@
         <v>636</v>
       </c>
     </row>
-    <row r="337" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A337" s="14" t="s">
+    <row r="337" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A337" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="B337" s="13" t="s">
+      <c r="B337" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C337" s="13" t="s">
+      <c r="C337" s="17" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10081,14 +10108,14 @@
         <v>727</v>
       </c>
     </row>
-    <row r="388" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A388" s="14" t="s">
+    <row r="388" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A388" s="18" t="s">
         <v>728</v>
       </c>
-      <c r="B388" s="13" t="s">
+      <c r="B388" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C388" s="13" t="s">
+      <c r="C388" s="17" t="s">
         <v>729</v>
       </c>
     </row>
@@ -10181,7 +10208,7 @@
       </c>
     </row>
     <row r="397" customHeight="1" spans="1:3">
-      <c r="A397" s="11" t="s">
+      <c r="A397" s="15" t="s">
         <v>744</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -10202,14 +10229,14 @@
         <v>747</v>
       </c>
     </row>
-    <row r="400" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A400" s="14" t="s">
+    <row r="400" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A400" s="18" t="s">
         <v>748</v>
       </c>
-      <c r="B400" s="13" t="s">
+      <c r="B400" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C400" s="13" t="s">
+      <c r="C400" s="17" t="s">
         <v>749</v>
       </c>
     </row>
@@ -10236,18 +10263,18 @@
       </c>
     </row>
     <row r="403" customHeight="1" spans="1:3">
-      <c r="A403" s="11" t="s">
+      <c r="A403" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="B403" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="C403" s="11" t="s">
+      <c r="B403" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C403" s="15" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="404" customHeight="1" spans="1:3">
-      <c r="A404" s="11" t="s">
+      <c r="A404" s="15" t="s">
         <v>756</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -10291,18 +10318,18 @@
       </c>
     </row>
     <row r="408" customHeight="1" spans="1:3">
-      <c r="A408" s="11"/>
-      <c r="B408" s="11"/>
-      <c r="C408" s="11"/>
-    </row>
-    <row r="409" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A409" s="13" t="s">
+      <c r="A408" s="15"/>
+      <c r="B408" s="15"/>
+      <c r="C408" s="15"/>
+    </row>
+    <row r="409" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A409" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="B409" s="13" t="s">
+      <c r="B409" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C409" s="13" t="s">
+      <c r="C409" s="17" t="s">
         <v>764</v>
       </c>
     </row>
@@ -10350,14 +10377,14 @@
         <v>770</v>
       </c>
     </row>
-    <row r="415" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A415" s="13" t="s">
+    <row r="415" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A415" s="17" t="s">
         <v>772</v>
       </c>
-      <c r="B415" s="13" t="s">
+      <c r="B415" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C415" s="13" t="s">
+      <c r="C415" s="17" t="s">
         <v>773</v>
       </c>
     </row>
@@ -10383,14 +10410,14 @@
         <v>777</v>
       </c>
     </row>
-    <row r="419" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A419" s="13" t="s">
+    <row r="419" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A419" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="B419" s="13" t="s">
+      <c r="B419" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C419" s="13" t="s">
+      <c r="C419" s="17" t="s">
         <v>779</v>
       </c>
     </row>
@@ -10493,14 +10520,14 @@
         <v>770</v>
       </c>
     </row>
-    <row r="430" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A430" s="13" t="s">
+    <row r="430" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A430" s="17" t="s">
         <v>794</v>
       </c>
-      <c r="B430" s="13" t="s">
+      <c r="B430" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C430" s="13" t="s">
+      <c r="C430" s="17" t="s">
         <v>795</v>
       </c>
     </row>
@@ -10526,14 +10553,14 @@
         <v>799</v>
       </c>
     </row>
-    <row r="434" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A434" s="13" t="s">
+    <row r="434" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A434" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="B434" s="13" t="s">
+      <c r="B434" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C434" s="13" t="s">
+      <c r="C434" s="17" t="s">
         <v>801</v>
       </c>
     </row>
@@ -10559,14 +10586,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="438" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A438" s="13" t="s">
+    <row r="438" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A438" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="B438" s="13" t="s">
+      <c r="B438" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C438" s="13" t="s">
+      <c r="C438" s="17" t="s">
         <v>807</v>
       </c>
     </row>
@@ -10592,14 +10619,14 @@
         <v>811</v>
       </c>
     </row>
-    <row r="442" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A442" s="13" t="s">
+    <row r="442" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A442" s="17" t="s">
         <v>812</v>
       </c>
-      <c r="B442" s="13" t="s">
+      <c r="B442" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C442" s="13" t="s">
+      <c r="C442" s="17" t="s">
         <v>813</v>
       </c>
     </row>
@@ -10647,19 +10674,19 @@
         <v>821</v>
       </c>
     </row>
-    <row r="448" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A448" s="14" t="s">
+    <row r="448" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A448" s="18" t="s">
         <v>822</v>
       </c>
-      <c r="B448" s="13" t="s">
+      <c r="B448" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C448" s="13" t="s">
+      <c r="C448" s="17" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="449" customHeight="1" spans="1:3">
-      <c r="A449" s="11" t="s">
+      <c r="A449" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B449" s="1" t="s">
@@ -10830,7 +10857,7 @@
       <c r="B468" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C468" s="11" t="s">
+      <c r="C468" s="15" t="s">
         <v>855</v>
       </c>
     </row>
@@ -10923,7 +10950,7 @@
       </c>
     </row>
     <row r="479" customHeight="1" spans="3:3">
-      <c r="C479" s="11"/>
+      <c r="C479" s="15"/>
     </row>
     <row r="480" customHeight="1" spans="1:3">
       <c r="A480" s="1" t="s">
@@ -10976,7 +11003,7 @@
       <c r="B485" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C485" s="11" t="s">
+      <c r="C485" s="15" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10992,7 +11019,7 @@
       </c>
     </row>
     <row r="487" customHeight="1" spans="1:3">
-      <c r="A487" s="11" t="s">
+      <c r="A487" s="15" t="s">
         <v>884</v>
       </c>
       <c r="B487" s="1" t="s">
@@ -11233,14 +11260,14 @@
         <v>926</v>
       </c>
     </row>
-    <row r="515" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A515" s="13" t="s">
+    <row r="515" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A515" s="17" t="s">
         <v>927</v>
       </c>
-      <c r="B515" s="13" t="s">
+      <c r="B515" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C515" s="13" t="s">
+      <c r="C515" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -11277,14 +11304,14 @@
         <v>934</v>
       </c>
     </row>
-    <row r="520" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A520" s="13" t="s">
+    <row r="520" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A520" s="17" t="s">
         <v>935</v>
       </c>
-      <c r="B520" s="13" t="s">
+      <c r="B520" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C520" s="13" t="s">
+      <c r="C520" s="17" t="s">
         <v>936</v>
       </c>
     </row>
@@ -11321,14 +11348,14 @@
         <v>942</v>
       </c>
     </row>
-    <row r="525" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A525" s="13" t="s">
+    <row r="525" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A525" s="17" t="s">
         <v>943</v>
       </c>
-      <c r="B525" s="13" t="s">
+      <c r="B525" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C525" s="13" t="s">
+      <c r="C525" s="17" t="s">
         <v>944</v>
       </c>
     </row>
@@ -11365,14 +11392,14 @@
         <v>950</v>
       </c>
     </row>
-    <row r="530" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A530" s="13" t="s">
+    <row r="530" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A530" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="B530" s="13" t="s">
+      <c r="B530" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C530" s="13" t="s">
+      <c r="C530" s="17" t="s">
         <v>952</v>
       </c>
     </row>
@@ -11409,14 +11436,14 @@
         <v>958</v>
       </c>
     </row>
-    <row r="535" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A535" s="13" t="s">
+    <row r="535" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A535" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="B535" s="13" t="s">
+      <c r="B535" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C535" s="13" t="s">
+      <c r="C535" s="17" t="s">
         <v>960</v>
       </c>
     </row>
@@ -11464,14 +11491,14 @@
         <v>968</v>
       </c>
     </row>
-    <row r="541" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A541" s="13" t="s">
+    <row r="541" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A541" s="17" t="s">
         <v>969</v>
       </c>
-      <c r="B541" s="13" t="s">
+      <c r="B541" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C541" s="13" t="s">
+      <c r="C541" s="17" t="s">
         <v>970</v>
       </c>
     </row>
@@ -11497,14 +11524,14 @@
         <v>974</v>
       </c>
     </row>
-    <row r="545" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A545" s="13" t="s">
+    <row r="545" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A545" s="17" t="s">
         <v>975</v>
       </c>
-      <c r="B545" s="13" t="s">
+      <c r="B545" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C545" s="13" t="s">
+      <c r="C545" s="17" t="s">
         <v>976</v>
       </c>
     </row>
@@ -11530,14 +11557,14 @@
         <v>980</v>
       </c>
     </row>
-    <row r="549" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A549" s="13" t="s">
+    <row r="549" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A549" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="B549" s="13" t="s">
+      <c r="B549" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C549" s="13" t="s">
+      <c r="C549" s="17" t="s">
         <v>982</v>
       </c>
     </row>
@@ -11596,14 +11623,14 @@
         <v>992</v>
       </c>
     </row>
-    <row r="556" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A556" s="13" t="s">
+    <row r="556" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A556" s="17" t="s">
         <v>993</v>
       </c>
-      <c r="B556" s="13" t="s">
+      <c r="B556" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C556" s="13" t="s">
+      <c r="C556" s="17" t="s">
         <v>994</v>
       </c>
     </row>
@@ -11662,14 +11689,14 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="563" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A563" s="13" t="s">
+    <row r="563" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A563" s="17" t="s">
         <v>1005</v>
       </c>
-      <c r="B563" s="13" t="s">
+      <c r="B563" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C563" s="13" t="s">
+      <c r="C563" s="17" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -11706,14 +11733,14 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="568" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A568" s="13" t="s">
+    <row r="568" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A568" s="17" t="s">
         <v>1013</v>
       </c>
-      <c r="B568" s="13" t="s">
+      <c r="B568" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C568" s="13" t="s">
+      <c r="C568" s="17" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -11739,14 +11766,14 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="572" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A572" s="13" t="s">
+    <row r="572" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A572" s="17" t="s">
         <v>1019</v>
       </c>
-      <c r="B572" s="13" t="s">
+      <c r="B572" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C572" s="13" t="s">
+      <c r="C572" s="17" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11794,14 +11821,14 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="578" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A578" s="13" t="s">
+    <row r="578" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A578" s="17" t="s">
         <v>1029</v>
       </c>
-      <c r="B578" s="13" t="s">
+      <c r="B578" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C578" s="13" t="s">
+      <c r="C578" s="17" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -11827,14 +11854,14 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="582" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A582" s="13" t="s">
+    <row r="582" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A582" s="17" t="s">
         <v>1035</v>
       </c>
-      <c r="B582" s="13" t="s">
+      <c r="B582" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C582" s="13" t="s">
+      <c r="C582" s="17" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -11882,25 +11909,25 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="588" s="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A588" s="13" t="s">
+    <row r="588" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A588" s="17" t="s">
         <v>1045</v>
       </c>
-      <c r="B588" s="14" t="s">
+      <c r="B588" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C588" s="14" t="s">
+      <c r="C588" s="18" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="589" customHeight="1" spans="1:3">
-      <c r="A589" s="11" t="s">
+      <c r="A589" s="15" t="s">
         <v>1047</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C589" s="11" t="s">
+      <c r="C589" s="15" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -11911,7 +11938,7 @@
       <c r="B590" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C590" s="11" t="s">
+      <c r="C590" s="15" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -11933,2917 +11960,2917 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="58.125" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="58.125" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="14" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="14" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="14" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="14" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="14" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="14" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="14" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="14" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="14" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="14" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="14" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="14" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="14" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="14" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="14" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="14" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="14" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="14" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="14" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="14" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="14" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="14" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="14" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="14" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="14" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="14" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="14" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="14" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="14" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="14" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="14" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="14" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="14" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="14" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="14" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="14" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="14" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="14" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="14" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="14" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="14" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="14" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="14" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="14" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="14" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="14" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="14" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="14" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="14" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="14" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="14" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="14" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="14" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="14" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="14" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="14" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="14" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="14" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="14" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="14" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="14" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="14" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="14" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="14" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="14" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="14" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="14" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="14" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="14" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="14" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="14" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="14" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="14" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="14" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="14" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="14" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="14" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="14" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="14" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="14" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="14" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="14" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="14" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="14" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="14" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="14" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="14" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="14" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="14" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="14" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="14" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="14" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="14" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="14" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="14" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="14" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="14" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="14" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="14" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="14" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="14" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="14" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="14" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="14" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="14" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="14" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="14" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="14" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="14" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="14" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="14" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="14" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="14" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="14" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="14" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="14" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="14" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="14" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="14" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="14" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="14" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="14" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="10" t="s">
+      <c r="A167" s="14" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="14" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="14" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="14" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="14" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="14" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="10" t="s">
+      <c r="A173" s="14" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="10" t="s">
+      <c r="A174" s="14" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="14" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="14" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="10" t="s">
+      <c r="A177" s="14" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="14" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="14" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="14" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="14" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="10" t="s">
+      <c r="A182" s="14" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="14" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="14" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="14" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="14" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="14" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="10" t="s">
+      <c r="A188" s="14" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="10" t="s">
+      <c r="A189" s="14" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="14" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="14" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="10" t="s">
+      <c r="A192" s="14" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="10" t="s">
+      <c r="A193" s="14" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="10" t="s">
+      <c r="A194" s="14" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="14" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="14" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="10" t="s">
+      <c r="A197" s="14" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="10" t="s">
+      <c r="A198" s="14" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="10" t="s">
+      <c r="A199" s="14" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="10" t="s">
+      <c r="A200" s="14" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="10" t="s">
+      <c r="A201" s="14" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="10" t="s">
+      <c r="A202" s="14" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="14" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="10" t="s">
+      <c r="A204" s="14" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="10" t="s">
+      <c r="A205" s="14" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="10" t="s">
+      <c r="A206" s="14" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="10" t="s">
+      <c r="A207" s="14" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="10" t="s">
+      <c r="A208" s="14" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="10" t="s">
+      <c r="A209" s="14" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="10" t="s">
+      <c r="A210" s="14" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="10" t="s">
+      <c r="A211" s="14" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="10" t="s">
+      <c r="A212" s="14" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="10" t="s">
+      <c r="A213" s="14" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="10" t="s">
+      <c r="A214" s="14" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="10" t="s">
+      <c r="A215" s="14" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="10" t="s">
+      <c r="A216" s="14" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="10" t="s">
+      <c r="A217" s="14" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="10" t="s">
+      <c r="A218" s="14" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="10" t="s">
+      <c r="A219" s="14" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="10" t="s">
+      <c r="A220" s="14" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="10" t="s">
+      <c r="A221" s="14" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="10" t="s">
+      <c r="A222" s="14" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="10" t="s">
+      <c r="A223" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="10" t="s">
+      <c r="A224" s="14" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="10" t="s">
+      <c r="A225" s="14" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="10" t="s">
+      <c r="A226" s="14" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="10" t="s">
+      <c r="A227" s="14" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="10" t="s">
+      <c r="A228" s="14" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="10" t="s">
+      <c r="A229" s="14" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="10" t="s">
+      <c r="A230" s="14" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="10" t="s">
+      <c r="A231" s="14" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="10" t="s">
+      <c r="A232" s="14" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="10" t="s">
+      <c r="A233" s="14" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="10" t="s">
+      <c r="A234" s="14" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="10" t="s">
+      <c r="A235" s="14" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="10" t="s">
+      <c r="A236" s="14" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="10" t="s">
+      <c r="A237" s="14" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="10" t="s">
+      <c r="A238" s="14" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="10" t="s">
+      <c r="A239" s="14" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="10" t="s">
+      <c r="A240" s="14" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="10" t="s">
+      <c r="A241" s="14" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="10" t="s">
+      <c r="A242" s="14" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="10" t="s">
+      <c r="A243" s="14" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="10" t="s">
+      <c r="A244" s="14" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="10" t="s">
+      <c r="A245" s="14" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="10" t="s">
+      <c r="A246" s="14" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="10" t="s">
+      <c r="A247" s="14" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="10" t="s">
+      <c r="A248" s="14" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="10" t="s">
+      <c r="A249" s="14" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="10" t="s">
+      <c r="A250" s="14" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="10" t="s">
+      <c r="A251" s="14" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="10" t="s">
+      <c r="A252" s="14" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="10" t="s">
+      <c r="A253" s="14" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="10" t="s">
+      <c r="A254" s="14" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="10" t="s">
+      <c r="A255" s="14" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="10" t="s">
+      <c r="A256" s="14" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="10" t="s">
+      <c r="A257" s="14" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="10" t="s">
+      <c r="A258" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="10" t="s">
+      <c r="A259" s="14" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="10" t="s">
+      <c r="A260" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="10" t="s">
+      <c r="A261" s="14" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="10" t="s">
+      <c r="A262" s="14" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="10" t="s">
+      <c r="A263" s="14" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="10" t="s">
+      <c r="A264" s="14" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="10" t="s">
+      <c r="A265" s="14" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="10" t="s">
+      <c r="A266" s="14" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="10" t="s">
+      <c r="A267" s="14" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="10" t="s">
+      <c r="A268" s="14" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="10" t="s">
+      <c r="A269" s="14" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="10" t="s">
+      <c r="A270" s="14" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="10" t="s">
+      <c r="A271" s="14" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="10" t="s">
+      <c r="A272" s="14" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="10" t="s">
+      <c r="A273" s="14" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="10" t="s">
+      <c r="A274" s="14" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="10" t="s">
+      <c r="A275" s="14" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="10" t="s">
+      <c r="A276" s="14" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="10" t="s">
+      <c r="A277" s="14" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="10" t="s">
+      <c r="A278" s="14" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="10" t="s">
+      <c r="A279" s="14" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="10" t="s">
+      <c r="A280" s="14" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="10" t="s">
+      <c r="A281" s="14" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="10" t="s">
+      <c r="A282" s="14" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="10" t="s">
+      <c r="A283" s="14" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="10" t="s">
+      <c r="A284" s="14" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="10" t="s">
+      <c r="A285" s="14" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="10" t="s">
+      <c r="A286" s="14" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="10" t="s">
+      <c r="A287" s="14" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="10" t="s">
+      <c r="A288" s="14" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="10" t="s">
+      <c r="A289" s="14" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="10" t="s">
+      <c r="A290" s="14" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="10" t="s">
+      <c r="A291" s="14" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="10" t="s">
+      <c r="A292" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="10" t="s">
+      <c r="A293" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="10" t="s">
+      <c r="A294" s="14" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="10" t="s">
+      <c r="A295" s="14" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="10" t="s">
+      <c r="A296" s="14" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="10" t="s">
+      <c r="A297" s="14" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="10" t="s">
+      <c r="A298" s="14" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="10" t="s">
+      <c r="A299" s="14" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="10" t="s">
+      <c r="A300" s="14" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="10" t="s">
+      <c r="A301" s="14" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="10" t="s">
+      <c r="A302" s="14" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="10" t="s">
+      <c r="A303" s="14" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="10" t="s">
+      <c r="A304" s="14" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="10" t="s">
+      <c r="A305" s="14" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="10" t="s">
+      <c r="A306" s="14" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="10" t="s">
+      <c r="A307" s="14" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="10" t="s">
+      <c r="A308" s="14" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="10" t="s">
+      <c r="A309" s="14" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="10" t="s">
+      <c r="A310" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="10" t="s">
+      <c r="A311" s="14" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="10" t="s">
+      <c r="A312" s="14" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="10" t="s">
+      <c r="A313" s="14" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="10" t="s">
+      <c r="A314" s="14" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="10" t="s">
+      <c r="A315" s="14" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="10" t="s">
+      <c r="A316" s="14" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="10" t="s">
+      <c r="A317" s="14" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="10" t="s">
+      <c r="A318" s="14" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="10" t="s">
+      <c r="A319" s="14" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="10" t="s">
+      <c r="A320" s="14" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="10" t="s">
+      <c r="A321" s="14" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="10" t="s">
+      <c r="A322" s="14" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="10" t="s">
+      <c r="A323" s="14" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="10" t="s">
+      <c r="A324" s="14" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="10" t="s">
+      <c r="A325" s="14" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="10" t="s">
+      <c r="A326" s="14" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="10" t="s">
+      <c r="A327" s="14" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="10" t="s">
+      <c r="A328" s="14" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="10" t="s">
+      <c r="A329" s="14" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="10" t="s">
+      <c r="A330" s="14" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="10" t="s">
+      <c r="A331" s="14" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="10" t="s">
+      <c r="A332" s="14" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="10" t="s">
+      <c r="A333" s="14" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="10" t="s">
+      <c r="A334" s="14" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="10" t="s">
+      <c r="A335" s="14" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="10" t="s">
+      <c r="A336" s="14" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="10" t="s">
+      <c r="A337" s="14" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="10" t="s">
+      <c r="A338" s="14" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="10" t="s">
+      <c r="A339" s="14" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="10" t="s">
+      <c r="A340" s="14" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="10" t="s">
+      <c r="A341" s="14" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="10" t="s">
+      <c r="A342" s="14" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="10" t="s">
+      <c r="A343" s="14" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="10" t="s">
+      <c r="A344" s="14" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="10" t="s">
+      <c r="A345" s="14" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="10" t="s">
+      <c r="A346" s="14" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="10" t="s">
+      <c r="A347" s="14" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="10" t="s">
+      <c r="A348" s="14" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="10" t="s">
+      <c r="A349" s="14" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="10" t="s">
+      <c r="A350" s="14" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="10" t="s">
+      <c r="A351" s="14" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="10" t="s">
+      <c r="A352" s="14" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="10" t="s">
+      <c r="A353" s="14" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="10" t="s">
+      <c r="A354" s="14" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="10" t="s">
+      <c r="A355" s="14" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="10" t="s">
+      <c r="A356" s="14" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="10" t="s">
+      <c r="A357" s="14" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="10" t="s">
+      <c r="A358" s="14" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="10" t="s">
+      <c r="A359" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="10" t="s">
+      <c r="A360" s="14" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="10" t="s">
+      <c r="A361" s="14" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="10" t="s">
+      <c r="A362" s="14" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="10" t="s">
+      <c r="A363" s="14" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="10" t="s">
+      <c r="A364" s="14" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="10" t="s">
+      <c r="A365" s="14" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="10" t="s">
+      <c r="A366" s="14" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="10" t="s">
+      <c r="A367" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="10" t="s">
+      <c r="A368" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="10" t="s">
+      <c r="A369" s="14" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="10" t="s">
+      <c r="A370" s="14" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="10" t="s">
+      <c r="A371" s="14" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="10" t="s">
+      <c r="A372" s="14" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="10" t="s">
+      <c r="A373" s="14" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="10" t="s">
+      <c r="A374" s="14" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="10" t="s">
+      <c r="A375" s="14" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="10" t="s">
+      <c r="A376" s="14" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="10" t="s">
+      <c r="A377" s="14" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="10" t="s">
+      <c r="A378" s="14" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="10" t="s">
+      <c r="A379" s="14" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="10" t="s">
+      <c r="A380" s="14" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="10" t="s">
+      <c r="A381" s="14" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="10" t="s">
+      <c r="A382" s="14" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="10" t="s">
+      <c r="A383" s="14" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="10" t="s">
+      <c r="A384" s="14" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="10" t="s">
+      <c r="A385" s="14" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="10" t="s">
+      <c r="A386" s="14" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="10" t="s">
+      <c r="A387" s="14" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="10" t="s">
+      <c r="A388" s="14" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="10" t="s">
+      <c r="A389" s="14" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="10" t="s">
+      <c r="A390" s="14" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="10" t="s">
+      <c r="A391" s="14" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="10" t="s">
+      <c r="A392" s="14" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="10" t="s">
+      <c r="A393" s="14" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="10" t="s">
+      <c r="A394" s="14" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="10" t="s">
+      <c r="A395" s="14" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="10" t="s">
+      <c r="A396" s="14" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="10" t="s">
+      <c r="A397" s="14" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="10" t="s">
+      <c r="A398" s="14" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="10" t="s">
+      <c r="A399" s="14" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="10" t="s">
+      <c r="A400" s="14" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="10" t="s">
+      <c r="A401" s="14" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="10" t="s">
+      <c r="A402" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="10" t="s">
+      <c r="A403" s="14" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="10" t="s">
+      <c r="A404" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="10" t="s">
+      <c r="A405" s="14" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="10" t="s">
+      <c r="A406" s="14" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="10" t="s">
+      <c r="A407" s="14" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="10" t="s">
+      <c r="A408" s="14" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="10" t="s">
+      <c r="A409" s="14" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="10" t="s">
+      <c r="A410" s="14" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="10" t="s">
+      <c r="A411" s="14" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="10" t="s">
+      <c r="A412" s="14" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="10" t="s">
+      <c r="A413" s="14" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="10" t="s">
+      <c r="A414" s="14" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="10" t="s">
+      <c r="A415" s="14" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="10" t="s">
+      <c r="A416" s="14" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="10" t="s">
+      <c r="A417" s="14" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="10" t="s">
+      <c r="A418" s="14" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="10" t="s">
+      <c r="A419" s="14" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="10" t="s">
+      <c r="A420" s="14" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="10" t="s">
+      <c r="A421" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="10" t="s">
+      <c r="A422" s="14" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="10" t="s">
+      <c r="A423" s="14" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="10" t="s">
+      <c r="A424" s="14" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="10" t="s">
+      <c r="A425" s="14" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="10" t="s">
+      <c r="A426" s="14" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="10" t="s">
+      <c r="A427" s="14" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="10" t="s">
+      <c r="A428" s="14" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="10" t="s">
+      <c r="A429" s="14" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="10" t="s">
+      <c r="A430" s="14" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="10" t="s">
+      <c r="A431" s="14" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="10" t="s">
+      <c r="A432" s="14" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="10" t="s">
+      <c r="A433" s="14" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="10" t="s">
+      <c r="A434" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="10" t="s">
+      <c r="A435" s="14" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="10" t="s">
+      <c r="A436" s="14" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="10" t="s">
+      <c r="A437" s="14" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="10" t="s">
+      <c r="A438" s="14" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="10" t="s">
+      <c r="A439" s="14" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="10" t="s">
+      <c r="A440" s="14" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="10" t="s">
+      <c r="A441" s="14" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="10" t="s">
+      <c r="A442" s="14" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="10" t="s">
+      <c r="A443" s="14" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="10" t="s">
+      <c r="A444" s="14" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="10" t="s">
+      <c r="A445" s="14" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="10" t="s">
+      <c r="A446" s="14" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="10" t="s">
+      <c r="A447" s="14" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="10" t="s">
+      <c r="A448" s="14" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="10" t="s">
+      <c r="A449" s="14" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="10" t="s">
+      <c r="A450" s="14" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="10" t="s">
+      <c r="A451" s="14" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="10" t="s">
+      <c r="A452" s="14" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="10" t="s">
+      <c r="A453" s="14" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="10" t="s">
+      <c r="A454" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="10" t="s">
+      <c r="A455" s="14" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="10" t="s">
+      <c r="A456" s="14" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="10" t="s">
+      <c r="A457" s="14" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="10" t="s">
+      <c r="A458" s="14" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="10" t="s">
+      <c r="A459" s="14" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="10" t="s">
+      <c r="A460" s="14" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="10" t="s">
+      <c r="A461" s="14" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="10" t="s">
+      <c r="A462" s="14" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="10" t="s">
+      <c r="A463" s="14" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="10" t="s">
+      <c r="A464" s="14" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="10" t="s">
+      <c r="A465" s="14" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="10" t="s">
+      <c r="A466" s="14" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="10" t="s">
+      <c r="A467" s="14" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="10" t="s">
+      <c r="A468" s="14" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="10" t="s">
+      <c r="A469" s="14" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="10" t="s">
+      <c r="A470" s="14" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="10" t="s">
+      <c r="A471" s="14" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="10" t="s">
+      <c r="A472" s="14" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="10" t="s">
+      <c r="A473" s="14" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="10" t="s">
+      <c r="A474" s="14" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="10" t="s">
+      <c r="A475" s="14" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="10" t="s">
+      <c r="A476" s="14" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="10" t="s">
+      <c r="A477" s="14" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="10" t="s">
+      <c r="A478" s="14" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="10" t="s">
+      <c r="A479" s="14" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="10" t="s">
+      <c r="A480" s="14" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="10" t="s">
+      <c r="A481" s="14" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="10" t="s">
+      <c r="A482" s="14" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="10" t="s">
+      <c r="A483" s="14" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="10" t="s">
+      <c r="A484" s="14" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="10" t="s">
+      <c r="A485" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="10" t="s">
+      <c r="A486" s="14" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="10" t="s">
+      <c r="A487" s="14" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="10" t="s">
+      <c r="A488" s="14" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="10" t="s">
+      <c r="A489" s="14" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="10" t="s">
+      <c r="A490" s="14" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="10" t="s">
+      <c r="A491" s="14" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="10" t="s">
+      <c r="A492" s="14" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="10" t="s">
+      <c r="A493" s="14" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="10" t="s">
+      <c r="A494" s="14" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="10" t="s">
+      <c r="A495" s="14" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="10" t="s">
+      <c r="A496" s="14" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="10" t="s">
+      <c r="A497" s="14" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="10" t="s">
+      <c r="A498" s="14" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="10" t="s">
+      <c r="A499" s="14" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="10" t="s">
+      <c r="A500" s="14" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="10" t="s">
+      <c r="A501" s="14" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="10" t="s">
+      <c r="A502" s="14" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="10" t="s">
+      <c r="A503" s="14" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="10" t="s">
+      <c r="A504" s="14" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="10" t="s">
+      <c r="A505" s="14" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="10" t="s">
+      <c r="A506" s="14" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="10" t="s">
+      <c r="A507" s="14" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="10" t="s">
+      <c r="A508" s="14" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="10" t="s">
+      <c r="A509" s="14" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="10" t="s">
+      <c r="A510" s="14" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="10" t="s">
+      <c r="A511" s="14" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="10" t="s">
+      <c r="A512" s="14" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="10" t="s">
+      <c r="A513" s="14" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="10" t="s">
+      <c r="A514" s="14" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="10" t="s">
+      <c r="A515" s="14" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="10" t="s">
+      <c r="A516" s="14" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="10" t="s">
+      <c r="A517" s="14" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="10" t="s">
+      <c r="A518" s="14" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="10" t="s">
+      <c r="A519" s="14" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="10" t="s">
+      <c r="A520" s="14" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="10" t="s">
+      <c r="A521" s="14" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="10" t="s">
+      <c r="A522" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="10" t="s">
+      <c r="A523" s="14" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="10" t="s">
+      <c r="A524" s="14" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="10" t="s">
+      <c r="A525" s="14" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="10" t="s">
+      <c r="A526" s="14" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="10" t="s">
+      <c r="A527" s="14" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="10" t="s">
+      <c r="A528" s="14" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="10" t="s">
+      <c r="A529" s="14" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="10" t="s">
+      <c r="A530" s="14" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="10" t="s">
+      <c r="A531" s="14" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="10" t="s">
+      <c r="A532" s="14" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="10" t="s">
+      <c r="A533" s="14" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="10" t="s">
+      <c r="A534" s="14" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="10" t="s">
+      <c r="A535" s="14" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="10" t="s">
+      <c r="A536" s="14" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="10" t="s">
+      <c r="A537" s="14" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="10" t="s">
+      <c r="A538" s="14" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="10" t="s">
+      <c r="A539" s="14" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="10" t="s">
+      <c r="A540" s="14" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="10" t="s">
+      <c r="A541" s="14" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="10" t="s">
+      <c r="A542" s="14" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="10" t="s">
+      <c r="A543" s="14" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="10" t="s">
+      <c r="A544" s="14" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="10" t="s">
+      <c r="A545" s="14" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="10" t="s">
+      <c r="A546" s="14" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="10" t="s">
+      <c r="A547" s="14" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="10" t="s">
+      <c r="A548" s="14" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="10" t="s">
+      <c r="A549" s="14" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="10" t="s">
+      <c r="A550" s="14" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="10" t="s">
+      <c r="A551" s="14" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="10" t="s">
+      <c r="A552" s="14" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="10" t="s">
+      <c r="A553" s="14" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="10" t="s">
+      <c r="A554" s="14" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="10" t="s">
+      <c r="A555" s="14" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="10" t="s">
+      <c r="A556" s="14" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="10" t="s">
+      <c r="A557" s="14" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="10" t="s">
+      <c r="A558" s="14" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="10" t="s">
+      <c r="A559" s="14" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="10" t="s">
+      <c r="A560" s="14" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="10" t="s">
+      <c r="A561" s="14" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="10" t="s">
+      <c r="A562" s="14" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="10" t="s">
+      <c r="A563" s="14" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="10" t="s">
+      <c r="A564" s="14" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="10" t="s">
+      <c r="A565" s="14" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="10" t="s">
+      <c r="A566" s="14" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="10" t="s">
+      <c r="A567" s="14" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="10" t="s">
+      <c r="A568" s="14" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="10" t="s">
+      <c r="A569" s="14" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="10" t="s">
+      <c r="A570" s="14" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="10" t="s">
+      <c r="A571" s="14" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="10" t="s">
+      <c r="A572" s="14" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="10" t="s">
+      <c r="A573" s="14" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="10" t="s">
+      <c r="A574" s="14" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="10" t="s">
+      <c r="A575" s="14" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="10" t="s">
+      <c r="A576" s="14" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="10" t="s">
+      <c r="A577" s="14" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="10" t="s">
+      <c r="A578" s="14" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="10" t="s">
+      <c r="A579" s="14" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="10" t="s">
+      <c r="A580" s="14" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="10" t="s">
+      <c r="A581" s="14" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="10" t="s">
+      <c r="A582" s="14" t="s">
         <v>991</v>
       </c>
     </row>
@@ -14858,8 +14885,8 @@
   <sheetPr/>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -15155,7 +15182,7 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5" t="s">
         <v>794</v>
@@ -15163,7 +15190,7 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>744</v>
       </c>
       <c r="B29" s="3"/>
@@ -15173,7 +15200,7 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="8" t="s">
         <v>949</v>
       </c>
       <c r="B30" s="3"/>
@@ -15183,7 +15210,7 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="5" t="s">
         <v>975</v>
@@ -15241,7 +15268,7 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>737</v>
       </c>
       <c r="B37" s="3"/>
@@ -15261,7 +15288,7 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="10" t="s">
         <v>742</v>
       </c>
       <c r="B39" s="3"/>
@@ -15271,7 +15298,7 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="10" t="s">
         <v>746</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -15307,7 +15334,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>754</v>
       </c>
       <c r="B43" s="3"/>
@@ -15317,7 +15344,7 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="9" t="s">
         <v>756</v>
       </c>
       <c r="B44" s="3"/>
@@ -15337,7 +15364,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="10" t="s">
         <v>759</v>
       </c>
       <c r="B46" s="3"/>
@@ -15347,11 +15374,11 @@
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="10" t="s">
         <v>761</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="11" t="s">
         <v>1035</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -15375,7 +15402,7 @@
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="10" t="s">
         <v>769</v>
       </c>
       <c r="B50" s="3"/>
@@ -15439,7 +15466,7 @@
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="6" t="s">
         <v>784</v>
       </c>
       <c r="B58" s="3"/>
@@ -15455,7 +15482,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="10" t="s">
         <v>787</v>
       </c>
       <c r="B60" s="3"/>
@@ -15471,7 +15498,7 @@
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="10" t="s">
         <v>790</v>
       </c>
       <c r="B62" s="3"/>
@@ -15479,7 +15506,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="10" t="s">
         <v>792</v>
       </c>
       <c r="B63" s="3"/>
@@ -15543,7 +15570,7 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="10" t="s">
         <v>818</v>
       </c>
       <c r="B71" s="3"/>
@@ -15551,7 +15578,7 @@
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="10" t="s">
         <v>820</v>
       </c>
       <c r="B72" s="3"/>
@@ -15559,7 +15586,7 @@
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="12" t="s">
         <v>824</v>
       </c>
       <c r="B73" s="3"/>
@@ -15575,7 +15602,7 @@
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="10" t="s">
         <v>828</v>
       </c>
       <c r="B75" s="3"/>
@@ -15583,7 +15610,7 @@
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="6" t="s">
         <v>830</v>
       </c>
       <c r="B76" s="3"/>
@@ -15591,7 +15618,7 @@
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="10" t="s">
         <v>834</v>
       </c>
       <c r="B77" s="3"/>
@@ -15599,7 +15626,7 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="6" t="s">
         <v>836</v>
       </c>
       <c r="B78" s="3"/>
@@ -15607,7 +15634,7 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="10" t="s">
         <v>838</v>
       </c>
       <c r="B79" s="3"/>
@@ -15615,7 +15642,7 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="6" t="s">
         <v>840</v>
       </c>
       <c r="B80" s="3"/>
@@ -15623,7 +15650,7 @@
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="6" t="s">
         <v>842</v>
       </c>
       <c r="B81" s="3"/>
@@ -15631,7 +15658,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="6" t="s">
         <v>844</v>
       </c>
       <c r="B82" s="3"/>
@@ -15639,7 +15666,7 @@
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="6" t="s">
         <v>846</v>
       </c>
       <c r="B83" s="3"/>
@@ -15647,7 +15674,7 @@
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="6" t="s">
         <v>848</v>
       </c>
       <c r="B84" s="3"/>
@@ -15655,7 +15682,7 @@
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="6" t="s">
         <v>850</v>
       </c>
       <c r="B85" s="3"/>
@@ -15663,7 +15690,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="6" t="s">
         <v>852</v>
       </c>
       <c r="B86" s="3"/>
@@ -15671,7 +15698,7 @@
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="6" t="s">
         <v>854</v>
       </c>
       <c r="B87" s="3"/>
@@ -15679,7 +15706,7 @@
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="6" t="s">
         <v>856</v>
       </c>
       <c r="B88" s="3"/>
@@ -15687,7 +15714,7 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="6" t="s">
         <v>858</v>
       </c>
       <c r="B89" s="3"/>
@@ -15695,7 +15722,7 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="6" t="s">
         <v>860</v>
       </c>
       <c r="B90" s="3"/>
@@ -15703,7 +15730,7 @@
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="6" t="s">
         <v>862</v>
       </c>
       <c r="B91" s="3"/>
@@ -15711,7 +15738,7 @@
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="6" t="s">
         <v>864</v>
       </c>
       <c r="B92" s="3"/>
@@ -15719,7 +15746,7 @@
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="6" t="s">
         <v>866</v>
       </c>
       <c r="B93" s="3"/>
@@ -15727,7 +15754,7 @@
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="6" t="s">
         <v>868</v>
       </c>
       <c r="B94" s="3"/>
@@ -15735,7 +15762,7 @@
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="6" t="s">
         <v>870</v>
       </c>
       <c r="B95" s="3"/>
@@ -15743,7 +15770,7 @@
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="6" t="s">
         <v>872</v>
       </c>
       <c r="B96" s="3"/>
@@ -15751,7 +15778,7 @@
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="6" t="s">
         <v>874</v>
       </c>
       <c r="B97" s="3"/>
@@ -15759,7 +15786,7 @@
       <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="6" t="s">
         <v>876</v>
       </c>
       <c r="B98" s="3"/>
@@ -15767,7 +15794,7 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="6" t="s">
         <v>878</v>
       </c>
       <c r="B99" s="3"/>
@@ -15775,7 +15802,7 @@
       <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="6" t="s">
         <v>880</v>
       </c>
       <c r="B100" s="3"/>
@@ -15783,7 +15810,7 @@
       <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="6" t="s">
         <v>882</v>
       </c>
       <c r="B101" s="3"/>
@@ -15791,7 +15818,7 @@
       <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="9" t="s">
         <v>884</v>
       </c>
       <c r="B102" s="3"/>
@@ -15799,7 +15826,7 @@
       <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="6" t="s">
         <v>886</v>
       </c>
       <c r="B103" s="3"/>
@@ -15807,7 +15834,7 @@
       <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="6" t="s">
         <v>888</v>
       </c>
       <c r="B104" s="3"/>
@@ -15815,7 +15842,7 @@
       <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="6" t="s">
         <v>890</v>
       </c>
       <c r="B105" s="3"/>
@@ -15823,7 +15850,7 @@
       <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="6" t="s">
         <v>892</v>
       </c>
       <c r="B106" s="3"/>
@@ -15831,7 +15858,7 @@
       <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="6" t="s">
         <v>894</v>
       </c>
       <c r="B107" s="3"/>
@@ -15839,7 +15866,7 @@
       <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="6" t="s">
         <v>896</v>
       </c>
       <c r="B108" s="3"/>
@@ -15847,7 +15874,7 @@
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="6" t="s">
         <v>898</v>
       </c>
       <c r="B109" s="3"/>
@@ -15855,7 +15882,7 @@
       <c r="D109" s="3"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="6" t="s">
         <v>900</v>
       </c>
       <c r="B110" s="3"/>
@@ -15863,7 +15890,7 @@
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="6" t="s">
         <v>902</v>
       </c>
       <c r="B111" s="3"/>
@@ -15871,7 +15898,7 @@
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="6" t="s">
         <v>904</v>
       </c>
       <c r="B112" s="3"/>
@@ -15879,7 +15906,7 @@
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="6" t="s">
         <v>906</v>
       </c>
       <c r="B113" s="3"/>
@@ -15887,7 +15914,7 @@
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="6" t="s">
         <v>908</v>
       </c>
       <c r="B114" s="3"/>
@@ -15895,7 +15922,7 @@
       <c r="D114" s="3"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="6" t="s">
         <v>910</v>
       </c>
       <c r="B115" s="3"/>
@@ -15903,7 +15930,7 @@
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="6" t="s">
         <v>911</v>
       </c>
       <c r="B116" s="3"/>
@@ -15911,7 +15938,7 @@
       <c r="D116" s="3"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="6" t="s">
         <v>913</v>
       </c>
       <c r="B117" s="3"/>
@@ -15919,7 +15946,7 @@
       <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="6" t="s">
         <v>915</v>
       </c>
       <c r="B118" s="3"/>
@@ -15927,7 +15954,7 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="6" t="s">
         <v>917</v>
       </c>
       <c r="B119" s="3"/>
@@ -15935,7 +15962,7 @@
       <c r="D119" s="3"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="6" t="s">
         <v>919</v>
       </c>
       <c r="B120" s="3"/>
@@ -15943,7 +15970,7 @@
       <c r="D120" s="3"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="6" t="s">
         <v>921</v>
       </c>
       <c r="B121" s="3"/>
@@ -15951,7 +15978,7 @@
       <c r="D121" s="3"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="6" t="s">
         <v>923</v>
       </c>
       <c r="B122" s="3"/>
@@ -15959,7 +15986,7 @@
       <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="6" t="s">
         <v>925</v>
       </c>
       <c r="B123" s="3"/>
@@ -15983,7 +16010,7 @@
       <c r="D125" s="3"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="6" t="s">
         <v>933</v>
       </c>
       <c r="B126" s="3"/>
@@ -15991,7 +16018,7 @@
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="6" t="s">
         <v>937</v>
       </c>
       <c r="B127" s="3"/>
@@ -15999,7 +16026,7 @@
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="6" t="s">
         <v>939</v>
       </c>
       <c r="B128" s="3"/>
@@ -16007,7 +16034,7 @@
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="6" t="s">
         <v>941</v>
       </c>
       <c r="B129" s="3"/>
@@ -16047,7 +16074,7 @@
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="10" t="s">
         <v>957</v>
       </c>
       <c r="B134" s="3"/>
@@ -16071,7 +16098,7 @@
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="6" t="s">
         <v>965</v>
       </c>
       <c r="B137" s="3"/>
@@ -16079,7 +16106,7 @@
       <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="6" t="s">
         <v>967</v>
       </c>
       <c r="B138" s="3"/>
@@ -16139,7 +16166,7 @@
       <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="10" t="s">
         <v>987</v>
       </c>
       <c r="B145" s="3"/>
@@ -16147,7 +16174,7 @@
       <c r="D145" s="3"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="10" t="s">
         <v>989</v>
       </c>
       <c r="B146" s="3"/>
@@ -16155,7 +16182,7 @@
       <c r="D146" s="3"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="10" t="s">
         <v>991</v>
       </c>
       <c r="B147" s="3"/>
@@ -16179,7 +16206,7 @@
       <c r="D149" s="3"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="10" t="s">
         <v>999</v>
       </c>
       <c r="B150" s="3"/>
@@ -16187,7 +16214,7 @@
       <c r="D150" s="3"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="10" t="s">
         <v>1001</v>
       </c>
       <c r="B151" s="3"/>
@@ -16195,7 +16222,7 @@
       <c r="D151" s="3"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="10" t="s">
         <v>1003</v>
       </c>
       <c r="B152" s="3"/>
@@ -16219,7 +16246,7 @@
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="10" t="s">
         <v>1011</v>
       </c>
       <c r="B155" s="3"/>
@@ -16259,7 +16286,7 @@
       <c r="D159" s="3"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="6" t="s">
         <v>1025</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -16269,7 +16296,7 @@
       <c r="D160" s="3"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="6" t="s">
         <v>1027</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -16295,25 +16322,25 @@
       <c r="D163" s="3"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>1599</v>
-      </c>
+      <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="B165" s="3"/>
+      <c r="B165" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="13" t="s">
         <v>1041</v>
       </c>
       <c r="B166" s="3"/>
@@ -16321,7 +16348,7 @@
       <c r="D166" s="3"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="12" t="s">
         <v>1047</v>
       </c>
       <c r="B167" s="3"/>
@@ -16348,7 +16375,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16417,24 +16444,29 @@
         <v>1611</v>
       </c>
     </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>1612</v>
+      </c>
+    </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
@@ -16454,10 +16486,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="46.75" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="31" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14"/>
+    <col min="3" max="3" width="46.75" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -16472,7 +16504,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>637</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -16483,7 +16515,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="15" t="s">
         <v>728</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -16494,7 +16526,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="15" t="s">
         <v>748</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -16582,7 +16614,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>822</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -16750,10 +16782,10 @@
       <c r="A27" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="15" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -16768,8 +16800,8 @@
   <sheetPr/>
   <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -16792,10 +16824,10 @@
       <c r="C1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>1051</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -16857,7 +16889,7 @@
       <c r="C5" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="15" t="s">
         <v>647</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -16874,7 +16906,7 @@
       <c r="C6" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="15" t="s">
         <v>649</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -16891,7 +16923,7 @@
       <c r="C7" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="15" t="s">
         <v>651</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -16908,7 +16940,7 @@
       <c r="C8" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="15" t="s">
         <v>655</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -16925,7 +16957,7 @@
       <c r="C9" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="15" t="s">
         <v>658</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -16942,7 +16974,7 @@
       <c r="C10" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="15" t="s">
         <v>661</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -16959,7 +16991,7 @@
       <c r="C11" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="15" t="s">
         <v>664</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -16976,7 +17008,7 @@
       <c r="C12" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="15" t="s">
         <v>667</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -16993,7 +17025,7 @@
       <c r="C13" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="15" t="s">
         <v>670</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -17010,7 +17042,7 @@
       <c r="C14" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="15" t="s">
         <v>673</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -17041,7 +17073,7 @@
       <c r="C16" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="15" t="s">
         <v>744</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -17058,7 +17090,7 @@
       <c r="C17" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>739</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -17075,7 +17107,7 @@
       <c r="C18" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="1" t="s">
         <v>1069</v>
       </c>
@@ -17090,7 +17122,7 @@
       <c r="C19" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="15" t="s">
         <v>971</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -17107,7 +17139,7 @@
       <c r="C20" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="15" t="s">
         <v>967</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -17124,7 +17156,7 @@
       <c r="C21" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="15" t="s">
         <v>973</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -17141,7 +17173,7 @@
       <c r="C22" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="15" t="s">
         <v>1047</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -17158,7 +17190,7 @@
       <c r="C23" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="15" t="s">
         <v>1049</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -17175,7 +17207,7 @@
       <c r="C24" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="1" t="s">
         <v>1075</v>
       </c>
@@ -17190,7 +17222,7 @@
       <c r="C25" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="15" t="s">
         <v>758</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -17207,7 +17239,7 @@
       <c r="C26" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="15" t="s">
         <v>786</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -17224,7 +17256,7 @@
       <c r="C27" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="15" t="s">
         <v>910</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -17241,7 +17273,7 @@
       <c r="C28" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="15" t="s">
         <v>850</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -17258,7 +17290,7 @@
       <c r="C29" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="15" t="s">
         <v>771</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -17275,7 +17307,7 @@
       <c r="C30" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="15" t="s">
         <v>949</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -17292,7 +17324,7 @@
       <c r="C31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="15" t="s">
         <v>793</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -17309,7 +17341,7 @@
       <c r="C32" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="15" t="s">
         <v>789</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -17326,7 +17358,7 @@
       <c r="C33" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="15" t="s">
         <v>820</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -17348,7 +17380,7 @@
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:5">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="15" t="s">
         <v>744</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -17404,13 +17436,13 @@
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:5">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>755</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -17418,7 +17450,7 @@
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:5">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="15" t="s">
         <v>756</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -17824,7 +17856,7 @@
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:5">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -18026,7 +18058,7 @@
       <c r="B83" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="15" t="s">
         <v>855</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -18208,7 +18240,7 @@
       <c r="B96" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="15" t="s">
         <v>881</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -18230,7 +18262,7 @@
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:5">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="15" t="s">
         <v>884</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -19079,13 +19111,13 @@
       </c>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:3">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="15" t="s">
         <v>1047</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="15" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -19096,7 +19128,7 @@
       <c r="B165" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="15" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -19121,622 +19153,622 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="58.75" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="58.75" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="14" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="14" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="14" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="14" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="14" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="14" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="14" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="14" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="14" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="14" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="14" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="14" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="14" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="14" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="14" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="14" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="14" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="14" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="14" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="14" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="14" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="14" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="14" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="14" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="14" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="14" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="14" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="14" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="14" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="14" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="14" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="14" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="14" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="14" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="14" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="14" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="14" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="14" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="14" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="14" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="14" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="14" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="14" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="14" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="14" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="14" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="14" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="14" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="14" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="14" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="14" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="14" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="14" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="14" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="14" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="14" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="14" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="14" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="14" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="14" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="14" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="14" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="14" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="14" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="14" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="14" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="14" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="14" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="14" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="14" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="14" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="14" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="14" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="14" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="14" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="14" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="14" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="14" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="14" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="14" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="14" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="14" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="14" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="14" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="14" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="14" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="14" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="14" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="14" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="14" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="14" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="14" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="14" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="14" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="14" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="14" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="14" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="14" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="14" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="14" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="14" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="14" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="14" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="14" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="14" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="14" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="14" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="14" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="14" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="14" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="14" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="14" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="14" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -19755,15 +19787,15 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="44.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="45.125" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="44.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14"/>
+    <col min="3" max="3" width="45.125" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -19964,16 +19996,16 @@
   <sheetPr/>
   <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="57" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="70.5" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="57" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14"/>
+    <col min="3" max="3" width="70.5" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -21914,1120 +21946,1120 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="80.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="75.875" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="80.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="75.875" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>1313</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>1315</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>1317</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>1319</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>1321</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>1323</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>1325</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="14" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="14" t="s">
         <v>1327</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="14" t="s">
         <v>1329</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>1331</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="14" t="s">
         <v>1333</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>1335</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="14" t="s">
         <v>1337</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="14" t="s">
         <v>1339</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="14" t="s">
         <v>1341</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="14" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="14" t="s">
         <v>1343</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="14" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="14" t="s">
         <v>1345</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="14" t="s">
         <v>1347</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="14" t="s">
         <v>1349</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="14" t="s">
         <v>1351</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="21" ht="12.95" customHeight="1" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>1353</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="14" t="s">
         <v>1355</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="14" t="s">
         <v>1357</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="14" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="14" t="s">
         <v>1359</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="14" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="14" t="s">
         <v>1361</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="14" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="14" t="s">
         <v>1363</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="14" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="14" t="s">
         <v>1365</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="14" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="14" t="s">
         <v>1367</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="14" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="14" t="s">
         <v>1369</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="14" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="14" t="s">
         <v>1371</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="14" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="14" t="s">
         <v>1373</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="14" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="14" t="s">
         <v>1375</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="14" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="14" t="s">
         <v>1377</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="14" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="14" t="s">
         <v>1379</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="14" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="14" t="s">
         <v>1381</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="14" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="14" t="s">
         <v>1383</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="14" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="14" t="s">
         <v>1385</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="14" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="14" t="s">
         <v>1387</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="14" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="14" t="s">
         <v>1389</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="14" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="14" t="s">
         <v>1391</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="14" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="14" t="s">
         <v>1393</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="14" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="14" t="s">
         <v>1395</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="14" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="14" t="s">
         <v>1397</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="14" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="14" t="s">
         <v>1399</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="14" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="14" t="s">
         <v>1401</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="14" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="14" t="s">
         <v>1403</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="14" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="14" t="s">
         <v>1405</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="14" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="14" t="s">
         <v>1407</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="14" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="14" t="s">
         <v>1409</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="14" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="14" t="s">
         <v>1411</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="14" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="51" s="12" customFormat="1" spans="1:2">
-      <c r="A51" s="12" t="s">
+    <row r="51" s="16" customFormat="1" spans="1:2">
+      <c r="A51" s="16" t="s">
         <v>1413</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="14" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="14" t="s">
         <v>1415</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="14" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="14" t="s">
         <v>1417</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="14" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="14" t="s">
         <v>1419</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="14" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="14" t="s">
         <v>1421</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="14" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="14" t="s">
         <v>1423</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="14" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="14" t="s">
         <v>1425</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="14" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="14" t="s">
         <v>1427</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="14" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="14" t="s">
         <v>1429</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="14" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="14" t="s">
         <v>1431</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="14" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="14" t="s">
         <v>1433</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="14" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="14" t="s">
         <v>1435</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="14" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="14" t="s">
         <v>1437</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="14" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="14" t="s">
         <v>1439</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="14" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="14" t="s">
         <v>1441</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="14" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="14" t="s">
         <v>1443</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="14" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="14" t="s">
         <v>1445</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="14" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="14" t="s">
         <v>1447</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="14" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="14" t="s">
         <v>1449</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="14" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="14" t="s">
         <v>1451</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="14" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="14" t="s">
         <v>1453</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="14" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="14" t="s">
         <v>1455</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="14" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="14" t="s">
         <v>1457</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="14" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="14" t="s">
         <v>1459</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="14" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="14" t="s">
         <v>1461</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="14" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="14" t="s">
         <v>1463</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="14" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="14" t="s">
         <v>1465</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="14" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="14" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="14" t="s">
         <v>1469</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="14" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="14" t="s">
         <v>1471</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="14" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="81" s="12" customFormat="1" spans="1:2">
-      <c r="A81" s="12" t="s">
+    <row r="81" s="16" customFormat="1" spans="1:2">
+      <c r="A81" s="16" t="s">
         <v>1473</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="14" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="14" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="14" t="s">
         <v>1477</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="14" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="14" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="14" t="s">
         <v>1481</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="14" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="14" t="s">
         <v>1483</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="14" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="14" t="s">
         <v>1485</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="14" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="14" t="s">
         <v>1487</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="14" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="14" t="s">
         <v>1489</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="14" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="14" t="s">
         <v>1491</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="14" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="14" t="s">
         <v>1493</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="14" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="14" t="s">
         <v>1495</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="14" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="14" t="s">
         <v>1497</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="14" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="14" t="s">
         <v>1499</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="14" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="14" t="s">
         <v>1501</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="14" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="14" t="s">
         <v>1503</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="14" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="14" t="s">
         <v>1505</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="14" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="98" s="12" customFormat="1" spans="1:2">
-      <c r="A98" s="12" t="s">
+    <row r="98" s="16" customFormat="1" spans="1:2">
+      <c r="A98" s="16" t="s">
         <v>1507</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="14" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="14" t="s">
         <v>1509</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="14" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="100" s="12" customFormat="1" spans="1:2">
-      <c r="A100" s="12" t="s">
+    <row r="100" s="16" customFormat="1" spans="1:2">
+      <c r="A100" s="16" t="s">
         <v>1511</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="14" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="14" t="s">
         <v>1513</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="14" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="102" s="12" customFormat="1" spans="1:2">
-      <c r="A102" s="12" t="s">
+    <row r="102" s="16" customFormat="1" spans="1:2">
+      <c r="A102" s="16" t="s">
         <v>1515</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="14" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="14" t="s">
         <v>1517</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="14" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="14" t="s">
         <v>1519</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="14" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="105" s="12" customFormat="1" spans="1:2">
-      <c r="A105" s="12" t="s">
+    <row r="105" s="16" customFormat="1" spans="1:2">
+      <c r="A105" s="16" t="s">
         <v>1521</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="14" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="14" t="s">
         <v>1523</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="14" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="14" t="s">
         <v>1525</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="14" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="108" s="12" customFormat="1" spans="1:2">
-      <c r="A108" s="12" t="s">
+    <row r="108" s="16" customFormat="1" spans="1:2">
+      <c r="A108" s="16" t="s">
         <v>1527</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="14" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="14" t="s">
         <v>1529</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="14" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="110" s="12" customFormat="1" spans="1:2">
-      <c r="A110" s="12" t="s">
+    <row r="110" s="16" customFormat="1" spans="1:2">
+      <c r="A110" s="16" t="s">
         <v>1531</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="14" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="14" t="s">
         <v>1533</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="14" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="14" t="s">
         <v>1535</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="14" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="14" t="s">
         <v>1537</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="14" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="14" t="s">
         <v>1539</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="14" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="14" t="s">
         <v>1541</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="14" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="14" t="s">
         <v>1543</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="14" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="14" t="s">
         <v>1545</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="14" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="14" t="s">
         <v>1547</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="14" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="14" t="s">
         <v>1549</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="14" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="14" t="s">
         <v>1551</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="14" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="14" t="s">
         <v>1553</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="14" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="14" t="s">
         <v>1555</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="14" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="14" t="s">
         <v>1557</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="14" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="14" t="s">
         <v>1559</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="14" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="14" t="s">
         <v>1561</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="14" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="14" t="s">
         <v>1563</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="14" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="127" s="12" customFormat="1" spans="1:2">
-      <c r="A127" s="12" t="s">
+    <row r="127" s="16" customFormat="1" spans="1:2">
+      <c r="A127" s="16" t="s">
         <v>1565</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="14" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="14" t="s">
         <v>1567</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="14" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="14" t="s">
         <v>1569</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="14" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="14" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="14" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="14" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="14" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="14" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="14" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="14" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="14" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="14" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="14" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="14" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="14" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="14" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="14" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="14" t="s">
         <v>1586</v>
       </c>
     </row>
@@ -23048,15 +23080,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="36.25" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -23067,7 +23099,7 @@
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -23078,7 +23110,7 @@
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -23089,7 +23121,7 @@
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -24548,10 +24580,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="40.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="14" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
